--- a/result/speedtest_helmi.xlsx
+++ b/result/speedtest_helmi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL50"/>
+  <dimension ref="A1:AL51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,65 +633,65 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:11Z</t>
+          <t>2024-09-15T08:23:11Z</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.382</v>
+        <v>0.102</v>
       </c>
       <c r="D2" t="n">
-        <v>13.589</v>
+        <v>13.298</v>
       </c>
       <c r="E2" t="n">
-        <v>13.279</v>
+        <v>13.207</v>
       </c>
       <c r="F2" t="n">
-        <v>13.823</v>
+        <v>13.509</v>
       </c>
       <c r="G2" t="n">
-        <v>2808120</v>
+        <v>2534120</v>
       </c>
       <c r="H2" t="n">
-        <v>4953311</v>
+        <v>5343507</v>
       </c>
       <c r="I2" t="n">
-        <v>15015</v>
+        <v>13707</v>
       </c>
       <c r="J2" t="n">
-        <v>157.998</v>
+        <v>219.25</v>
       </c>
       <c r="K2" t="n">
-        <v>14.565</v>
+        <v>15.676</v>
       </c>
       <c r="L2" t="n">
-        <v>1018.694</v>
+        <v>1308.504</v>
       </c>
       <c r="M2" t="n">
-        <v>54.145</v>
+        <v>63.283</v>
       </c>
       <c r="N2" t="n">
-        <v>478600</v>
+        <v>214960</v>
       </c>
       <c r="O2" t="n">
-        <v>927024</v>
+        <v>232112</v>
       </c>
       <c r="P2" t="n">
-        <v>13810</v>
+        <v>6975</v>
       </c>
       <c r="Q2" t="n">
-        <v>278.744</v>
+        <v>414.542</v>
       </c>
       <c r="R2" t="n">
-        <v>23.151</v>
+        <v>27.423</v>
       </c>
       <c r="S2" t="n">
-        <v>2092.03</v>
+        <v>1981.147</v>
       </c>
       <c r="T2" t="n">
-        <v>66.09399999999999</v>
+        <v>78.077</v>
       </c>
       <c r="U2" t="n">
-        <v>5.704697986577181</v>
+        <v>8.823529411764707</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -749,12 +749,12 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>73811dee-31af-40a5-a037-e10d92223673</t>
+          <t>fa497f9e-5856-401f-9014-ce37d61af2c7</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/73811dee-31af-40a5-a037-e10d92223673</t>
+          <t>https://www.speedtest.net/result/c/fa497f9e-5856-401f-9014-ce37d61af2c7</t>
         </is>
       </c>
       <c r="AJ2" t="b">
@@ -775,65 +775,65 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:16Z</t>
+          <t>2024-09-15T08:23:14Z</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.576</v>
+        <v>0.529</v>
       </c>
       <c r="D3" t="n">
-        <v>29.212</v>
+        <v>28.622</v>
       </c>
       <c r="E3" t="n">
-        <v>27.066</v>
+        <v>28.387</v>
       </c>
       <c r="F3" t="n">
-        <v>31.494</v>
+        <v>29.565</v>
       </c>
       <c r="G3" t="n">
-        <v>2256784</v>
+        <v>1898960</v>
       </c>
       <c r="H3" t="n">
-        <v>4594934</v>
+        <v>3911815</v>
       </c>
       <c r="I3" t="n">
-        <v>15003</v>
+        <v>15007</v>
       </c>
       <c r="J3" t="n">
-        <v>343.1</v>
+        <v>188.138</v>
       </c>
       <c r="K3" t="n">
-        <v>31.474</v>
+        <v>31.859</v>
       </c>
       <c r="L3" t="n">
-        <v>2135.958</v>
+        <v>693.126</v>
       </c>
       <c r="M3" t="n">
-        <v>67.161</v>
+        <v>60.643</v>
       </c>
       <c r="N3" t="n">
-        <v>519744</v>
+        <v>507296</v>
       </c>
       <c r="O3" t="n">
-        <v>854400</v>
+        <v>833040</v>
       </c>
       <c r="P3" t="n">
-        <v>14903</v>
+        <v>14727</v>
       </c>
       <c r="Q3" t="n">
-        <v>216.973</v>
+        <v>344.056</v>
       </c>
       <c r="R3" t="n">
-        <v>37.469</v>
+        <v>40.651</v>
       </c>
       <c r="S3" t="n">
-        <v>849.846</v>
+        <v>2459.376</v>
       </c>
       <c r="T3" t="n">
-        <v>59.026</v>
+        <v>68.872</v>
       </c>
       <c r="U3" t="n">
-        <v>8.053691275167786</v>
+        <v>10.73825503355705</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -891,12 +891,12 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>c0f816ae-3a19-42dc-9855-059b16dcafe7</t>
+          <t>c4fe7f86-15db-485b-8376-c3fa60f97ea6</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/c0f816ae-3a19-42dc-9855-059b16dcafe7</t>
+          <t>https://www.speedtest.net/result/c/c4fe7f86-15db-485b-8376-c3fa60f97ea6</t>
         </is>
       </c>
       <c r="AJ3" t="b">
@@ -917,65 +917,65 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:09Z</t>
+          <t>2024-09-15T08:23:13Z</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.62</v>
+        <v>1.305</v>
       </c>
       <c r="D4" t="n">
-        <v>17.758</v>
+        <v>19.403</v>
       </c>
       <c r="E4" t="n">
-        <v>15.941</v>
+        <v>18.291</v>
       </c>
       <c r="F4" t="n">
-        <v>22.42</v>
+        <v>21.826</v>
       </c>
       <c r="G4" t="n">
-        <v>2250024</v>
+        <v>2043064</v>
       </c>
       <c r="H4" t="n">
-        <v>3501962</v>
+        <v>3607446</v>
       </c>
       <c r="I4" t="n">
-        <v>11913</v>
+        <v>15015</v>
       </c>
       <c r="J4" t="n">
-        <v>224.941</v>
+        <v>340.675</v>
       </c>
       <c r="K4" t="n">
-        <v>18.72</v>
+        <v>19.742</v>
       </c>
       <c r="L4" t="n">
-        <v>1624.224</v>
+        <v>1870.708</v>
       </c>
       <c r="M4" t="n">
-        <v>67.357</v>
+        <v>70.822</v>
       </c>
       <c r="N4" t="n">
-        <v>348128</v>
+        <v>469544</v>
       </c>
       <c r="O4" t="n">
-        <v>572448</v>
+        <v>747600</v>
       </c>
       <c r="P4" t="n">
-        <v>14991</v>
+        <v>14948</v>
       </c>
       <c r="Q4" t="n">
-        <v>247.952</v>
+        <v>226.523</v>
       </c>
       <c r="R4" t="n">
-        <v>20.526</v>
+        <v>24.392</v>
       </c>
       <c r="S4" t="n">
-        <v>2040.553</v>
+        <v>944.787</v>
       </c>
       <c r="T4" t="n">
-        <v>66.176</v>
+        <v>69.003</v>
       </c>
       <c r="U4" t="n">
-        <v>6.329113924050633</v>
+        <v>12.41610738255033</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -1033,12 +1033,12 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>173369c1-d59f-48ea-9be8-2af47f08e000</t>
+          <t>7a294a96-b5eb-4b48-b021-f20c03410bf4</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/173369c1-d59f-48ea-9be8-2af47f08e000</t>
+          <t>https://www.speedtest.net/result/c/7a294a96-b5eb-4b48-b021-f20c03410bf4</t>
         </is>
       </c>
       <c r="AJ4" t="b">
@@ -1059,65 +1059,65 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:12Z</t>
+          <t>2024-09-15T08:23:23Z</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.764</v>
+        <v>1.994</v>
       </c>
       <c r="D5" t="n">
-        <v>18.816</v>
+        <v>19.241</v>
       </c>
       <c r="E5" t="n">
-        <v>16.704</v>
+        <v>18.255</v>
       </c>
       <c r="F5" t="n">
-        <v>26.004</v>
+        <v>24.54</v>
       </c>
       <c r="G5" t="n">
-        <v>3249920</v>
+        <v>1871616</v>
       </c>
       <c r="H5" t="n">
-        <v>6387984</v>
+        <v>4103840</v>
       </c>
       <c r="I5" t="n">
-        <v>15014</v>
+        <v>15000</v>
       </c>
       <c r="J5" t="n">
-        <v>365.171</v>
+        <v>310.467</v>
       </c>
       <c r="K5" t="n">
-        <v>20.619</v>
+        <v>21.983</v>
       </c>
       <c r="L5" t="n">
-        <v>2086.691</v>
+        <v>2410.217</v>
       </c>
       <c r="M5" t="n">
-        <v>62.813</v>
+        <v>68.557</v>
       </c>
       <c r="N5" t="n">
-        <v>422816</v>
+        <v>417232</v>
       </c>
       <c r="O5" t="n">
-        <v>808832</v>
+        <v>778928</v>
       </c>
       <c r="P5" t="n">
-        <v>14990</v>
+        <v>14991</v>
       </c>
       <c r="Q5" t="n">
-        <v>218.157</v>
+        <v>257.06</v>
       </c>
       <c r="R5" t="n">
-        <v>22.524</v>
+        <v>27.622</v>
       </c>
       <c r="S5" t="n">
-        <v>1519.352</v>
+        <v>1135.149</v>
       </c>
       <c r="T5" t="n">
-        <v>62.166</v>
+        <v>69.8</v>
       </c>
       <c r="U5" t="n">
-        <v>9.731543624161073</v>
+        <v>9.395973154362416</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1175,12 +1175,12 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>9340984d-81d3-4203-a0a8-858d1ec9e164</t>
+          <t>bc3ada60-134c-439d-b367-c53e5875c1d9</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/9340984d-81d3-4203-a0a8-858d1ec9e164</t>
+          <t>https://www.speedtest.net/result/c/bc3ada60-134c-439d-b367-c53e5875c1d9</t>
         </is>
       </c>
       <c r="AJ5" t="b">
@@ -1201,104 +1201,148 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:14Z</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2.778</v>
-      </c>
-      <c r="D6" t="n">
-        <v>26.587</v>
-      </c>
-      <c r="E6" t="n">
-        <v>24.673</v>
-      </c>
-      <c r="F6" t="n">
-        <v>30.585</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1775960</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2879508</v>
-      </c>
-      <c r="I6" t="n">
-        <v>15008</v>
-      </c>
-      <c r="J6" t="n">
-        <v>248.868</v>
-      </c>
-      <c r="K6" t="n">
-        <v>22.198</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2337.79</v>
-      </c>
-      <c r="M6" t="n">
-        <v>66.089</v>
-      </c>
-      <c r="N6" t="n">
-        <v>647936</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1058032</v>
-      </c>
-      <c r="P6" t="n">
-        <v>14999</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>118.598</v>
-      </c>
-      <c r="R6" t="n">
-        <v>19.351</v>
-      </c>
-      <c r="S6" t="n">
-        <v>838.569</v>
-      </c>
-      <c r="T6" t="n">
-        <v>48.414</v>
-      </c>
-      <c r="U6" t="n">
-        <v>5.782312925170068</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Universitas Sebelas Maret</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>192.168.1.208</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>sta5-wlan0</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>02:00:00:00:04:00</t>
-        </is>
-      </c>
-      <c r="Z6" t="b">
-        <v>0</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>203.6.148.253</t>
-        </is>
-      </c>
-      <c r="AB6" t="n">
-        <v>41848</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>sukoharjo-ookla.gmdp.net.id</t>
-        </is>
-      </c>
-      <c r="AD6" t="n">
-        <v>8080</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1307,30 +1351,32 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>Sukoharjo</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>f81d4e33-1f72-4f41-9987-7811b09627be</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/f81d4e33-1f72-4f41-9987-7811b09627be</t>
-        </is>
-      </c>
-      <c r="AJ6" t="b">
-        <v>1</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>No error</t>
+          <t xml:space="preserve">Cannot write: </t>
         </is>
       </c>
       <c r="AL6" t="inlineStr"/>
@@ -1343,65 +1389,65 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:16Z</t>
+          <t>2024-09-15T08:23:14Z</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4.851</v>
+        <v>3.113</v>
       </c>
       <c r="D7" t="n">
-        <v>39.278</v>
+        <v>38.198</v>
       </c>
       <c r="E7" t="n">
-        <v>35.662</v>
+        <v>34.808</v>
       </c>
       <c r="F7" t="n">
-        <v>49.342</v>
+        <v>42.925</v>
       </c>
       <c r="G7" t="n">
-        <v>1510424</v>
+        <v>1431416</v>
       </c>
       <c r="H7" t="n">
-        <v>3344098</v>
+        <v>3472781</v>
       </c>
       <c r="I7" t="n">
-        <v>15005</v>
+        <v>15002</v>
       </c>
       <c r="J7" t="n">
-        <v>280.718</v>
+        <v>301.018</v>
       </c>
       <c r="K7" t="n">
-        <v>33.313</v>
+        <v>37.196</v>
       </c>
       <c r="L7" t="n">
-        <v>1086.034</v>
+        <v>1478.249</v>
       </c>
       <c r="M7" t="n">
-        <v>69.009</v>
+        <v>68.211</v>
       </c>
       <c r="N7" t="n">
-        <v>432584</v>
+        <v>347752</v>
       </c>
       <c r="O7" t="n">
-        <v>754720</v>
+        <v>415808</v>
       </c>
       <c r="P7" t="n">
-        <v>14983</v>
+        <v>8380</v>
       </c>
       <c r="Q7" t="n">
-        <v>260.595</v>
+        <v>437.016</v>
       </c>
       <c r="R7" t="n">
-        <v>34.976</v>
+        <v>50.536</v>
       </c>
       <c r="S7" t="n">
-        <v>1612.772</v>
+        <v>1898.059</v>
       </c>
       <c r="T7" t="n">
-        <v>65.116</v>
+        <v>73.752</v>
       </c>
       <c r="U7" t="n">
-        <v>5.704697986577181</v>
+        <v>7.718120805369128</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1459,12 +1505,12 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>12bcde18-8492-4b59-8a08-72548768572f</t>
+          <t>c363576d-190a-4dd8-a0be-52f15af139f9</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/12bcde18-8492-4b59-8a08-72548768572f</t>
+          <t>https://www.speedtest.net/result/c/c363576d-190a-4dd8-a0be-52f15af139f9</t>
         </is>
       </c>
       <c r="AJ7" t="b">
@@ -1485,65 +1531,65 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:13Z</t>
+          <t>2024-09-15T08:23:15Z</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>58.514</v>
+        <v>231.156</v>
       </c>
       <c r="D8" t="n">
-        <v>32.129</v>
+        <v>186.506</v>
       </c>
       <c r="E8" t="n">
-        <v>24.142</v>
+        <v>23.412</v>
       </c>
       <c r="F8" t="n">
-        <v>249.024</v>
+        <v>484.206</v>
       </c>
       <c r="G8" t="n">
-        <v>1553896</v>
+        <v>1261872</v>
       </c>
       <c r="H8" t="n">
-        <v>2256472</v>
+        <v>2220273</v>
       </c>
       <c r="I8" t="n">
-        <v>12814</v>
+        <v>11801</v>
       </c>
       <c r="J8" t="n">
-        <v>263.449</v>
+        <v>245.413</v>
       </c>
       <c r="K8" t="n">
-        <v>25.586</v>
+        <v>24.743</v>
       </c>
       <c r="L8" t="n">
-        <v>1423.048</v>
+        <v>1306.67</v>
       </c>
       <c r="M8" t="n">
-        <v>68.723</v>
+        <v>67.877</v>
       </c>
       <c r="N8" t="n">
-        <v>512344</v>
+        <v>347664</v>
       </c>
       <c r="O8" t="n">
-        <v>988256</v>
+        <v>596656</v>
       </c>
       <c r="P8" t="n">
-        <v>14993</v>
+        <v>14997</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.25</v>
+        <v>190.041</v>
       </c>
       <c r="R8" t="n">
-        <v>23.673</v>
+        <v>23.976</v>
       </c>
       <c r="S8" t="n">
-        <v>1065.26</v>
+        <v>888.401</v>
       </c>
       <c r="T8" t="n">
-        <v>57.399</v>
+        <v>61.876</v>
       </c>
       <c r="U8" t="n">
-        <v>8.979591836734693</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1601,12 +1647,12 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>c7f3c416-9225-429b-81a3-675a5445b975</t>
+          <t>49d086f1-6c62-40b4-aa3d-8ae4f4ff761e</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/c7f3c416-9225-429b-81a3-675a5445b975</t>
+          <t>https://www.speedtest.net/result/c/49d086f1-6c62-40b4-aa3d-8ae4f4ff761e</t>
         </is>
       </c>
       <c r="AJ8" t="b">
@@ -1627,65 +1673,65 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:14Z</t>
+          <t>2024-09-15T08:23:18Z</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.893</v>
+        <v>4.171</v>
       </c>
       <c r="D9" t="n">
-        <v>22.475</v>
+        <v>26.97</v>
       </c>
       <c r="E9" t="n">
-        <v>19.364</v>
+        <v>24.615</v>
       </c>
       <c r="F9" t="n">
-        <v>25.937</v>
+        <v>30.828</v>
       </c>
       <c r="G9" t="n">
-        <v>1893768</v>
+        <v>1551128</v>
       </c>
       <c r="H9" t="n">
-        <v>3949989</v>
+        <v>3454624</v>
       </c>
       <c r="I9" t="n">
-        <v>15002</v>
+        <v>15016</v>
       </c>
       <c r="J9" t="n">
-        <v>242.823</v>
+        <v>150.112</v>
       </c>
       <c r="K9" t="n">
-        <v>23.763</v>
+        <v>22.352</v>
       </c>
       <c r="L9" t="n">
-        <v>2022.716</v>
+        <v>1145.036</v>
       </c>
       <c r="M9" t="n">
-        <v>67.532</v>
+        <v>55.439</v>
       </c>
       <c r="N9" t="n">
-        <v>475064</v>
+        <v>390624</v>
       </c>
       <c r="O9" t="n">
-        <v>790320</v>
+        <v>582416</v>
       </c>
       <c r="P9" t="n">
-        <v>14180</v>
+        <v>14959</v>
       </c>
       <c r="Q9" t="n">
-        <v>204.088</v>
+        <v>313.666</v>
       </c>
       <c r="R9" t="n">
-        <v>17.529</v>
+        <v>29.952</v>
       </c>
       <c r="S9" t="n">
-        <v>1294.649</v>
+        <v>1523.086</v>
       </c>
       <c r="T9" t="n">
-        <v>62.095</v>
+        <v>72.218</v>
       </c>
       <c r="U9" t="n">
-        <v>9.395973154362416</v>
+        <v>8.724832214765101</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1743,12 +1789,12 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1046575f-dea3-4e98-8802-6d11b59de7f0</t>
+          <t>0cccce2e-9f7e-44c7-a211-af53cfbd1416</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/1046575f-dea3-4e98-8802-6d11b59de7f0</t>
+          <t>https://www.speedtest.net/result/c/0cccce2e-9f7e-44c7-a211-af53cfbd1416</t>
         </is>
       </c>
       <c r="AJ9" t="b">
@@ -1769,65 +1815,65 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:17Z</t>
+          <t>2024-09-15T08:23:15Z</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.762</v>
+        <v>3.938</v>
       </c>
       <c r="D10" t="n">
-        <v>26.628</v>
+        <v>26.045</v>
       </c>
       <c r="E10" t="n">
-        <v>21.412</v>
+        <v>20.184</v>
       </c>
       <c r="F10" t="n">
-        <v>29.637</v>
+        <v>30.277</v>
       </c>
       <c r="G10" t="n">
-        <v>2075840</v>
+        <v>1820648</v>
       </c>
       <c r="H10" t="n">
-        <v>3414523</v>
+        <v>3169078</v>
       </c>
       <c r="I10" t="n">
-        <v>15004</v>
+        <v>15005</v>
       </c>
       <c r="J10" t="n">
-        <v>204.695</v>
+        <v>160.295</v>
       </c>
       <c r="K10" t="n">
-        <v>19.656</v>
+        <v>22.393</v>
       </c>
       <c r="L10" t="n">
-        <v>1191.667</v>
+        <v>1084.878</v>
       </c>
       <c r="M10" t="n">
-        <v>60.222</v>
+        <v>56.995</v>
       </c>
       <c r="N10" t="n">
-        <v>384296</v>
+        <v>446128</v>
       </c>
       <c r="O10" t="n">
-        <v>655040</v>
+        <v>778928</v>
       </c>
       <c r="P10" t="n">
-        <v>14638</v>
+        <v>14412</v>
       </c>
       <c r="Q10" t="n">
-        <v>108.089</v>
+        <v>257.321</v>
       </c>
       <c r="R10" t="n">
-        <v>21.88</v>
+        <v>24.021</v>
       </c>
       <c r="S10" t="n">
-        <v>829.529</v>
+        <v>1402.857</v>
       </c>
       <c r="T10" t="n">
-        <v>44.774</v>
+        <v>67.97799999999999</v>
       </c>
       <c r="U10" t="n">
-        <v>7.046979865771812</v>
+        <v>11.74496644295302</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1885,12 +1931,12 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>f9a7495b-7dc2-4087-a547-9760787612f5</t>
+          <t>704ee842-e92e-4c4b-9be7-62623e703994</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/f9a7495b-7dc2-4087-a547-9760787612f5</t>
+          <t>https://www.speedtest.net/result/c/704ee842-e92e-4c4b-9be7-62623e703994</t>
         </is>
       </c>
       <c r="AJ10" t="b">
@@ -1911,65 +1957,65 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:15Z</t>
+          <t>2024-09-15T08:23:17Z</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.208</v>
+        <v>192.268</v>
       </c>
       <c r="D11" t="n">
-        <v>34.841</v>
+        <v>122.072</v>
       </c>
       <c r="E11" t="n">
-        <v>31.43</v>
+        <v>39.602</v>
       </c>
       <c r="F11" t="n">
-        <v>36.641</v>
+        <v>547.217</v>
       </c>
       <c r="G11" t="n">
-        <v>1375064</v>
+        <v>1266848</v>
       </c>
       <c r="H11" t="n">
-        <v>2746780</v>
+        <v>1962623</v>
       </c>
       <c r="I11" t="n">
-        <v>15010</v>
+        <v>12009</v>
       </c>
       <c r="J11" t="n">
-        <v>306.23</v>
+        <v>339.256</v>
       </c>
       <c r="K11" t="n">
-        <v>32.333</v>
+        <v>39.372</v>
       </c>
       <c r="L11" t="n">
-        <v>1577.795</v>
+        <v>1318.965</v>
       </c>
       <c r="M11" t="n">
-        <v>69.809</v>
+        <v>72.79600000000001</v>
       </c>
       <c r="N11" t="n">
-        <v>575264</v>
+        <v>370752</v>
       </c>
       <c r="O11" t="n">
-        <v>956928</v>
+        <v>726240</v>
       </c>
       <c r="P11" t="n">
-        <v>14754</v>
+        <v>14772</v>
       </c>
       <c r="Q11" t="n">
-        <v>255.161</v>
+        <v>324.008</v>
       </c>
       <c r="R11" t="n">
-        <v>33.846</v>
+        <v>35.115</v>
       </c>
       <c r="S11" t="n">
-        <v>1913.236</v>
+        <v>2522.023</v>
       </c>
       <c r="T11" t="n">
-        <v>63.98</v>
+        <v>70.40900000000001</v>
       </c>
       <c r="U11" t="n">
-        <v>6.711409395973154</v>
+        <v>7.758620689655173</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -2027,12 +2073,12 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>0bfdef73-62d6-4f1b-bb66-ba47c0e78e9c</t>
+          <t>a2190660-5bdc-41d9-ab67-e97a4f840e91</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/0bfdef73-62d6-4f1b-bb66-ba47c0e78e9c</t>
+          <t>https://www.speedtest.net/result/c/a2190660-5bdc-41d9-ab67-e97a4f840e91</t>
         </is>
       </c>
       <c r="AJ11" t="b">
@@ -2053,65 +2099,65 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:19Z</t>
+          <t>2024-09-15T08:23:18Z</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>347.247</v>
+        <v>65.843</v>
       </c>
       <c r="D12" t="n">
-        <v>98.364</v>
+        <v>35.237</v>
       </c>
       <c r="E12" t="n">
-        <v>25.179</v>
+        <v>31.692</v>
       </c>
       <c r="F12" t="n">
-        <v>492.864</v>
+        <v>285.689</v>
       </c>
       <c r="G12" t="n">
-        <v>1576056</v>
+        <v>463040</v>
       </c>
       <c r="H12" t="n">
-        <v>2285811</v>
+        <v>838721</v>
       </c>
       <c r="I12" t="n">
-        <v>15004</v>
+        <v>15005</v>
       </c>
       <c r="J12" t="n">
-        <v>488.147</v>
+        <v>368.859</v>
       </c>
       <c r="K12" t="n">
-        <v>25.234</v>
+        <v>28.621</v>
       </c>
       <c r="L12" t="n">
-        <v>2616.602</v>
+        <v>1696.877</v>
       </c>
       <c r="M12" t="n">
-        <v>79.83799999999999</v>
+        <v>79.32599999999999</v>
       </c>
       <c r="N12" t="n">
-        <v>589024</v>
+        <v>664904</v>
       </c>
       <c r="O12" t="n">
-        <v>1136352</v>
+        <v>1220368</v>
       </c>
       <c r="P12" t="n">
-        <v>14966</v>
+        <v>14562</v>
       </c>
       <c r="Q12" t="n">
-        <v>178.312</v>
+        <v>215.055</v>
       </c>
       <c r="R12" t="n">
-        <v>22.496</v>
+        <v>20.753</v>
       </c>
       <c r="S12" t="n">
-        <v>1138.402</v>
+        <v>1388.229</v>
       </c>
       <c r="T12" t="n">
-        <v>57.489</v>
+        <v>62.52</v>
       </c>
       <c r="U12" t="n">
-        <v>5.839416058394161</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -2169,12 +2215,12 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>846c394a-f3cf-4552-81c3-e0c200a11b06</t>
+          <t>6cef61d3-ea9a-46b2-90e9-4df2f5a2f043</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/846c394a-f3cf-4552-81c3-e0c200a11b06</t>
+          <t>https://www.speedtest.net/result/c/6cef61d3-ea9a-46b2-90e9-4df2f5a2f043</t>
         </is>
       </c>
       <c r="AJ12" t="b">
@@ -2195,65 +2241,65 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:12Z</t>
+          <t>2024-09-15T08:23:15Z</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>115.664</v>
+        <v>2.219</v>
       </c>
       <c r="D13" t="n">
-        <v>27.147</v>
+        <v>24.472</v>
       </c>
       <c r="E13" t="n">
-        <v>25.375</v>
+        <v>23.137</v>
       </c>
       <c r="F13" t="n">
-        <v>257.525</v>
+        <v>26.843</v>
       </c>
       <c r="G13" t="n">
-        <v>1196176</v>
+        <v>1006744</v>
       </c>
       <c r="H13" t="n">
-        <v>1789160</v>
+        <v>2614238</v>
       </c>
       <c r="I13" t="n">
-        <v>12612</v>
+        <v>15003</v>
       </c>
       <c r="J13" t="n">
-        <v>380.522</v>
+        <v>238.667</v>
       </c>
       <c r="K13" t="n">
-        <v>25.388</v>
+        <v>24.605</v>
       </c>
       <c r="L13" t="n">
-        <v>1311.119</v>
+        <v>1219.971</v>
       </c>
       <c r="M13" t="n">
-        <v>78.328</v>
+        <v>66.155</v>
       </c>
       <c r="N13" t="n">
-        <v>382280</v>
+        <v>425048</v>
       </c>
       <c r="O13" t="n">
-        <v>706304</v>
+        <v>625136</v>
       </c>
       <c r="P13" t="n">
-        <v>14970</v>
+        <v>11032</v>
       </c>
       <c r="Q13" t="n">
-        <v>236.95</v>
+        <v>377.749</v>
       </c>
       <c r="R13" t="n">
-        <v>18.45</v>
+        <v>28.71</v>
       </c>
       <c r="S13" t="n">
-        <v>1248.144</v>
+        <v>1902.767</v>
       </c>
       <c r="T13" t="n">
-        <v>63.468</v>
+        <v>75.494</v>
       </c>
       <c r="U13" t="n">
-        <v>6.772908366533865</v>
+        <v>10.06711409395973</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -2311,12 +2357,12 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>de427746-73f3-4e07-98c2-78de65dcc59d</t>
+          <t>e96b647b-b474-42df-82bc-aab19066ffd2</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/de427746-73f3-4e07-98c2-78de65dcc59d</t>
+          <t>https://www.speedtest.net/result/c/e96b647b-b474-42df-82bc-aab19066ffd2</t>
         </is>
       </c>
       <c r="AJ13" t="b">
@@ -2337,65 +2383,65 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:20Z</t>
+          <t>2024-09-15T08:23:20Z</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>115.274</v>
+        <v>170.507</v>
       </c>
       <c r="D14" t="n">
-        <v>27.037</v>
+        <v>191.391</v>
       </c>
       <c r="E14" t="n">
-        <v>22.239</v>
+        <v>30.194</v>
       </c>
       <c r="F14" t="n">
-        <v>254.351</v>
+        <v>484.473</v>
       </c>
       <c r="G14" t="n">
-        <v>1409472</v>
+        <v>1136400</v>
       </c>
       <c r="H14" t="n">
-        <v>2288943</v>
+        <v>2076774</v>
       </c>
       <c r="I14" t="n">
-        <v>15009</v>
+        <v>15003</v>
       </c>
       <c r="J14" t="n">
-        <v>518.0839999999999</v>
+        <v>237.146</v>
       </c>
       <c r="K14" t="n">
-        <v>22.824</v>
+        <v>20.868</v>
       </c>
       <c r="L14" t="n">
-        <v>4581.522</v>
+        <v>1976.438</v>
       </c>
       <c r="M14" t="n">
-        <v>76.994</v>
+        <v>65.071</v>
       </c>
       <c r="N14" t="n">
-        <v>463472</v>
+        <v>711160</v>
       </c>
       <c r="O14" t="n">
-        <v>800288</v>
+        <v>1161984</v>
       </c>
       <c r="P14" t="n">
-        <v>14981</v>
+        <v>14767</v>
       </c>
       <c r="Q14" t="n">
-        <v>179.759</v>
+        <v>288.634</v>
       </c>
       <c r="R14" t="n">
-        <v>23.114</v>
+        <v>23.561</v>
       </c>
       <c r="S14" t="n">
-        <v>2325.004</v>
+        <v>1567.808</v>
       </c>
       <c r="T14" t="n">
-        <v>62.976</v>
+        <v>72.211</v>
       </c>
       <c r="U14" t="n">
-        <v>11.0738255033557</v>
+        <v>9.731543624161073</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -2453,16 +2499,16 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>20933659-6054-42aa-a195-2ceadb1eb76a</t>
+          <t>89f9db12-4b8c-478d-80e1-3a796d37d5b4</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/20933659-6054-42aa-a195-2ceadb1eb76a</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJ14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
@@ -2479,65 +2525,65 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:16Z</t>
+          <t>2024-09-15T08:23:13Z</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>118.105</v>
+        <v>126.677</v>
       </c>
       <c r="D15" t="n">
-        <v>44.14</v>
+        <v>116.576</v>
       </c>
       <c r="E15" t="n">
-        <v>40.106</v>
+        <v>40.827</v>
       </c>
       <c r="F15" t="n">
-        <v>275.79</v>
+        <v>295.544</v>
       </c>
       <c r="G15" t="n">
-        <v>1439176</v>
+        <v>963936</v>
       </c>
       <c r="H15" t="n">
-        <v>2546975</v>
+        <v>1159404</v>
       </c>
       <c r="I15" t="n">
-        <v>12410</v>
+        <v>11005</v>
       </c>
       <c r="J15" t="n">
-        <v>375.408</v>
+        <v>514.251</v>
       </c>
       <c r="K15" t="n">
-        <v>39.428</v>
+        <v>41.435</v>
       </c>
       <c r="L15" t="n">
-        <v>2677.559</v>
+        <v>1635.909</v>
       </c>
       <c r="M15" t="n">
-        <v>71.34099999999999</v>
+        <v>79.498</v>
       </c>
       <c r="N15" t="n">
-        <v>613672</v>
+        <v>293160</v>
       </c>
       <c r="O15" t="n">
-        <v>968320</v>
+        <v>504096</v>
       </c>
       <c r="P15" t="n">
-        <v>15002</v>
+        <v>15003</v>
       </c>
       <c r="Q15" t="n">
-        <v>217.075</v>
+        <v>271.816</v>
       </c>
       <c r="R15" t="n">
-        <v>38.868</v>
+        <v>51.194</v>
       </c>
       <c r="S15" t="n">
-        <v>707.9059999999999</v>
+        <v>610.297</v>
       </c>
       <c r="T15" t="n">
-        <v>58.505</v>
+        <v>84.151</v>
       </c>
       <c r="U15" t="n">
-        <v>7.522123893805309</v>
+        <v>16</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -2595,12 +2641,12 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>4ce6c862-2f65-4e53-8a3c-4770765a14e8</t>
+          <t>5da885ca-cbae-473c-87fd-dc4cf62a4bf0</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/4ce6c862-2f65-4e53-8a3c-4770765a14e8</t>
+          <t>https://www.speedtest.net/result/c/5da885ca-cbae-473c-87fd-dc4cf62a4bf0</t>
         </is>
       </c>
       <c r="AJ15" t="b">
@@ -2621,65 +2667,65 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:12Z</t>
+          <t>2024-09-15T08:23:20Z</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>7.442</v>
+        <v>284.988</v>
       </c>
       <c r="D16" t="n">
-        <v>27.367</v>
+        <v>100.163</v>
       </c>
       <c r="E16" t="n">
-        <v>24.091</v>
+        <v>23.121</v>
       </c>
       <c r="F16" t="n">
-        <v>33.191</v>
+        <v>483.142</v>
       </c>
       <c r="G16" t="n">
-        <v>1654896</v>
+        <v>1389448</v>
       </c>
       <c r="H16" t="n">
-        <v>2494955</v>
+        <v>2314632</v>
       </c>
       <c r="I16" t="n">
-        <v>12700</v>
+        <v>15011</v>
       </c>
       <c r="J16" t="n">
-        <v>143.821</v>
+        <v>308.232</v>
       </c>
       <c r="K16" t="n">
-        <v>21.171</v>
+        <v>25.249</v>
       </c>
       <c r="L16" t="n">
-        <v>848.0650000000001</v>
+        <v>1983.048</v>
       </c>
       <c r="M16" t="n">
-        <v>57.714</v>
+        <v>77.81999999999999</v>
       </c>
       <c r="N16" t="n">
-        <v>445720</v>
+        <v>731784</v>
       </c>
       <c r="O16" t="n">
-        <v>753296</v>
+        <v>1247424</v>
       </c>
       <c r="P16" t="n">
-        <v>14278</v>
+        <v>14987</v>
       </c>
       <c r="Q16" t="n">
-        <v>167.952</v>
+        <v>352.885</v>
       </c>
       <c r="R16" t="n">
-        <v>23.743</v>
+        <v>25.001</v>
       </c>
       <c r="S16" t="n">
-        <v>925.251</v>
+        <v>1949.302</v>
       </c>
       <c r="T16" t="n">
-        <v>60.022</v>
+        <v>73.044</v>
       </c>
       <c r="U16" t="n">
-        <v>7.53968253968254</v>
+        <v>14.76510067114094</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -2737,12 +2783,12 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>fdb7a798-e0fd-4de5-80d9-1992a0fad3a4</t>
+          <t>24fb45ca-fa27-4b83-92a2-e77c9e5f187e</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/fdb7a798-e0fd-4de5-80d9-1992a0fad3a4</t>
+          <t>https://www.speedtest.net/result/c/24fb45ca-fa27-4b83-92a2-e77c9e5f187e</t>
         </is>
       </c>
       <c r="AJ16" t="b">
@@ -2763,65 +2809,65 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:16Z</t>
+          <t>2024-09-15T08:23:19Z</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>58.642</v>
+        <v>3.204</v>
       </c>
       <c r="D17" t="n">
-        <v>31.089</v>
+        <v>28.86</v>
       </c>
       <c r="E17" t="n">
-        <v>25.027</v>
+        <v>25.662</v>
       </c>
       <c r="F17" t="n">
-        <v>259.597</v>
+        <v>32.656</v>
       </c>
       <c r="G17" t="n">
-        <v>1443600</v>
+        <v>1042480</v>
       </c>
       <c r="H17" t="n">
-        <v>2434549</v>
+        <v>2070551</v>
       </c>
       <c r="I17" t="n">
-        <v>12802</v>
+        <v>15005</v>
       </c>
       <c r="J17" t="n">
-        <v>212.093</v>
+        <v>215.956</v>
       </c>
       <c r="K17" t="n">
-        <v>23.25</v>
+        <v>26.565</v>
       </c>
       <c r="L17" t="n">
-        <v>1074.124</v>
+        <v>580.824</v>
       </c>
       <c r="M17" t="n">
-        <v>62.309</v>
+        <v>64.05200000000001</v>
       </c>
       <c r="N17" t="n">
-        <v>449552</v>
+        <v>327680</v>
       </c>
       <c r="O17" t="n">
-        <v>796016</v>
+        <v>532576</v>
       </c>
       <c r="P17" t="n">
-        <v>14999</v>
+        <v>14251</v>
       </c>
       <c r="Q17" t="n">
-        <v>191.893</v>
+        <v>305.912</v>
       </c>
       <c r="R17" t="n">
-        <v>25.12</v>
+        <v>25.678</v>
       </c>
       <c r="S17" t="n">
-        <v>918.043</v>
+        <v>1489.818</v>
       </c>
       <c r="T17" t="n">
-        <v>57.883</v>
+        <v>72.443</v>
       </c>
       <c r="U17" t="n">
-        <v>6.274509803921569</v>
+        <v>13.42281879194631</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -2879,12 +2925,12 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>14eeab53-ade3-4ce9-8fca-ac5cc1a96b6b</t>
+          <t>0c9cf608-e467-478d-ab0f-c59230ea02c8</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/14eeab53-ade3-4ce9-8fca-ac5cc1a96b6b</t>
+          <t>https://www.speedtest.net/result/c/0c9cf608-e467-478d-ab0f-c59230ea02c8</t>
         </is>
       </c>
       <c r="AJ17" t="b">
@@ -2905,104 +2951,148 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:19Z</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>3.359</v>
-      </c>
-      <c r="D18" t="n">
-        <v>27.624</v>
-      </c>
-      <c r="E18" t="n">
-        <v>23.669</v>
-      </c>
-      <c r="F18" t="n">
-        <v>29.919</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1060904</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1577968</v>
-      </c>
-      <c r="I18" t="n">
-        <v>13504</v>
-      </c>
-      <c r="J18" t="n">
-        <v>305.514</v>
-      </c>
-      <c r="K18" t="n">
-        <v>22.533</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1041.368</v>
-      </c>
-      <c r="M18" t="n">
-        <v>72.18600000000001</v>
-      </c>
-      <c r="N18" t="n">
-        <v>347136</v>
-      </c>
-      <c r="O18" t="n">
-        <v>665008</v>
-      </c>
-      <c r="P18" t="n">
-        <v>15011</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>200.807</v>
-      </c>
-      <c r="R18" t="n">
-        <v>21.094</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1378.203</v>
-      </c>
-      <c r="T18" t="n">
-        <v>60.709</v>
-      </c>
-      <c r="U18" t="n">
-        <v>7.835820895522388</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Universitas Sebelas Maret</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>192.168.1.196</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>sta17-wlan0</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>02:00:00:00:10:00</t>
-        </is>
-      </c>
-      <c r="Z18" t="b">
-        <v>0</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>203.6.148.253</t>
-        </is>
-      </c>
-      <c r="AB18" t="n">
-        <v>41848</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>sukoharjo-ookla.gmdp.net.id</t>
-        </is>
-      </c>
-      <c r="AD18" t="n">
-        <v>8080</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
@@ -3011,30 +3101,32 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>Sukoharjo</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>33a0bf9e-a874-4c0d-bed3-a0866d00323e</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/33a0bf9e-a874-4c0d-bed3-a0866d00323e</t>
-        </is>
-      </c>
-      <c r="AJ18" t="b">
-        <v>1</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>No error</t>
+          <t xml:space="preserve">Cannot write: </t>
         </is>
       </c>
       <c r="AL18" t="inlineStr"/>
@@ -3047,65 +3139,65 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:16Z</t>
+          <t>2024-09-15T08:23:21Z</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>179.279</v>
+        <v>71.964</v>
       </c>
       <c r="D19" t="n">
-        <v>112.966</v>
+        <v>53.144</v>
       </c>
       <c r="E19" t="n">
-        <v>41.056</v>
+        <v>46.737</v>
       </c>
       <c r="F19" t="n">
-        <v>296.678</v>
+        <v>329.558</v>
       </c>
       <c r="G19" t="n">
-        <v>1801048</v>
+        <v>918424</v>
       </c>
       <c r="H19" t="n">
-        <v>2665089</v>
+        <v>1556406</v>
       </c>
       <c r="I19" t="n">
-        <v>15003</v>
+        <v>15008</v>
       </c>
       <c r="J19" t="n">
-        <v>575.801</v>
+        <v>528.7190000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>40.093</v>
+        <v>40.472</v>
       </c>
       <c r="L19" t="n">
-        <v>2066.591</v>
+        <v>2586.623</v>
       </c>
       <c r="M19" t="n">
-        <v>82.32599999999999</v>
+        <v>78.273</v>
       </c>
       <c r="N19" t="n">
-        <v>633112</v>
+        <v>1096528</v>
       </c>
       <c r="O19" t="n">
-        <v>1154864</v>
+        <v>1983632</v>
       </c>
       <c r="P19" t="n">
-        <v>14602</v>
+        <v>15002</v>
       </c>
       <c r="Q19" t="n">
-        <v>231.218</v>
+        <v>265.069</v>
       </c>
       <c r="R19" t="n">
-        <v>35.842</v>
+        <v>37.072</v>
       </c>
       <c r="S19" t="n">
-        <v>1550.137</v>
+        <v>1157.817</v>
       </c>
       <c r="T19" t="n">
-        <v>60.345</v>
+        <v>63.468</v>
       </c>
       <c r="U19" t="n">
-        <v>11.94539249146758</v>
+        <v>10.38062283737024</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -3163,12 +3255,12 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>2099572b-2e59-4069-ab63-f5499c0a0e8f</t>
+          <t>f6a5e1e6-66b0-4937-b642-12cd2e3e43bb</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/2099572b-2e59-4069-ab63-f5499c0a0e8f</t>
+          <t>https://www.speedtest.net/result/c/f6a5e1e6-66b0-4937-b642-12cd2e3e43bb</t>
         </is>
       </c>
       <c r="AJ19" t="b">
@@ -3189,182 +3281,136 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+          <t>2024-09-15T08:23:18Z</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4.777</v>
+      </c>
+      <c r="D20" t="n">
+        <v>38.41</v>
+      </c>
+      <c r="E20" t="n">
+        <v>32.601</v>
+      </c>
+      <c r="F20" t="n">
+        <v>44.205</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1105824</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1565407</v>
+      </c>
+      <c r="I20" t="n">
+        <v>14015</v>
+      </c>
+      <c r="J20" t="n">
+        <v>328.763</v>
+      </c>
+      <c r="K20" t="n">
+        <v>27.298</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2389.907</v>
+      </c>
+      <c r="M20" t="n">
+        <v>73.434</v>
+      </c>
+      <c r="N20" t="n">
+        <v>714552</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1384128</v>
+      </c>
+      <c r="P20" t="n">
+        <v>14927</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>262.776</v>
+      </c>
+      <c r="R20" t="n">
+        <v>23.923</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1987.264</v>
+      </c>
+      <c r="T20" t="n">
+        <v>70.01600000000001</v>
+      </c>
+      <c r="U20" t="n">
+        <v>12.94964028776978</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>Universitas Sebelas Maret</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>192.168.1.144</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>sta19-wlan0</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+          <t>02:00:00:00:12:00</t>
+        </is>
+      </c>
+      <c r="Z20" t="b">
+        <v>0</v>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+          <t>203.6.148.253</t>
+        </is>
+      </c>
+      <c r="AB20" t="n">
+        <v>33207</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+          <t>speedtest.gsmnet.id</t>
+        </is>
+      </c>
+      <c r="AD20" t="n">
+        <v>8080</v>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>Citranet</t>
+          <t>Lintas Data Prima</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>Surakarta</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>888577b2-0038-4924-8c9f-72cf280340e4</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+          <t>https://www.speedtest.net/result/c/888577b2-0038-4924-8c9f-72cf280340e4</t>
+        </is>
+      </c>
+      <c r="AJ20" t="b">
+        <v>1</v>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>Latency test failed</t>
+          <t>No error</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr"/>
@@ -3377,65 +3423,65 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:15Z</t>
+          <t>2024-09-15T08:23:16Z</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>62.627</v>
+        <v>4.46</v>
       </c>
       <c r="D21" t="n">
-        <v>29.118</v>
+        <v>33.348</v>
       </c>
       <c r="E21" t="n">
-        <v>24.323</v>
+        <v>27.027</v>
       </c>
       <c r="F21" t="n">
-        <v>267.115</v>
+        <v>36.642</v>
       </c>
       <c r="G21" t="n">
-        <v>1258736</v>
+        <v>1173184</v>
       </c>
       <c r="H21" t="n">
-        <v>2069248</v>
+        <v>1931799</v>
       </c>
       <c r="I21" t="n">
-        <v>12908</v>
+        <v>11801</v>
       </c>
       <c r="J21" t="n">
-        <v>260.738</v>
+        <v>364.49</v>
       </c>
       <c r="K21" t="n">
-        <v>25.551</v>
+        <v>30.594</v>
       </c>
       <c r="L21" t="n">
-        <v>964.322</v>
+        <v>1146.147</v>
       </c>
       <c r="M21" t="n">
-        <v>69.047</v>
+        <v>76.762</v>
       </c>
       <c r="N21" t="n">
-        <v>707496</v>
+        <v>469288</v>
       </c>
       <c r="O21" t="n">
-        <v>1445360</v>
+        <v>793168</v>
       </c>
       <c r="P21" t="n">
-        <v>14961</v>
+        <v>14993</v>
       </c>
       <c r="Q21" t="n">
-        <v>168.588</v>
+        <v>274.61</v>
       </c>
       <c r="R21" t="n">
-        <v>19.378</v>
+        <v>26.142</v>
       </c>
       <c r="S21" t="n">
-        <v>1366.33</v>
+        <v>1253.379</v>
       </c>
       <c r="T21" t="n">
-        <v>57.727</v>
+        <v>69.768</v>
       </c>
       <c r="U21" t="n">
-        <v>8.730158730158729</v>
+        <v>13.47826086956522</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -3493,12 +3539,12 @@
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>71b8d3b8-f25b-4d50-87dc-27189c612cef</t>
+          <t>55b2a94d-7fb9-4778-9489-498760ebc09b</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/71b8d3b8-f25b-4d50-87dc-27189c612cef</t>
+          <t>https://www.speedtest.net/result/c/55b2a94d-7fb9-4778-9489-498760ebc09b</t>
         </is>
       </c>
       <c r="AJ21" t="b">
@@ -3519,65 +3565,65 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:16Z</t>
+          <t>2024-09-15T08:23:15Z</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>125.738</v>
+        <v>58.626</v>
       </c>
       <c r="D22" t="n">
-        <v>101.824</v>
+        <v>37.861</v>
       </c>
       <c r="E22" t="n">
-        <v>26.474</v>
+        <v>31.056</v>
       </c>
       <c r="F22" t="n">
-        <v>278.733</v>
+        <v>265.56</v>
       </c>
       <c r="G22" t="n">
-        <v>905880</v>
+        <v>1161664</v>
       </c>
       <c r="H22" t="n">
-        <v>1512181</v>
+        <v>1614757</v>
       </c>
       <c r="I22" t="n">
-        <v>15004</v>
+        <v>12805</v>
       </c>
       <c r="J22" t="n">
-        <v>271.783</v>
+        <v>320.265</v>
       </c>
       <c r="K22" t="n">
-        <v>26.395</v>
+        <v>26.38</v>
       </c>
       <c r="L22" t="n">
-        <v>1463.924</v>
+        <v>2156.945</v>
       </c>
       <c r="M22" t="n">
-        <v>74.054</v>
+        <v>71.919</v>
       </c>
       <c r="N22" t="n">
-        <v>754552</v>
+        <v>433248</v>
       </c>
       <c r="O22" t="n">
-        <v>1369888</v>
+        <v>679248</v>
       </c>
       <c r="P22" t="n">
-        <v>14986</v>
+        <v>14996</v>
       </c>
       <c r="Q22" t="n">
-        <v>139.54</v>
+        <v>219.065</v>
       </c>
       <c r="R22" t="n">
-        <v>17.544</v>
+        <v>33.363</v>
       </c>
       <c r="S22" t="n">
-        <v>1079.456</v>
+        <v>558.415</v>
       </c>
       <c r="T22" t="n">
-        <v>53.737</v>
+        <v>65.586</v>
       </c>
       <c r="U22" t="n">
-        <v>6.040268456375839</v>
+        <v>14.45783132530121</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -3635,12 +3681,12 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>078e5c33-70ec-4789-8519-38e28db94d9a</t>
+          <t>32212547-3d10-4a35-90c1-803bf58aa272</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/078e5c33-70ec-4789-8519-38e28db94d9a</t>
+          <t>https://www.speedtest.net/result/c/32212547-3d10-4a35-90c1-803bf58aa272</t>
         </is>
       </c>
       <c r="AJ22" t="b">
@@ -3661,182 +3707,136 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+          <t>2024-09-15T08:23:16Z</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>304.003</v>
+      </c>
+      <c r="D23" t="n">
+        <v>116.192</v>
+      </c>
+      <c r="E23" t="n">
+        <v>37.956</v>
+      </c>
+      <c r="F23" t="n">
+        <v>527.04</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1098512</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1978819</v>
+      </c>
+      <c r="I23" t="n">
+        <v>15009</v>
+      </c>
+      <c r="J23" t="n">
+        <v>532.8440000000001</v>
+      </c>
+      <c r="K23" t="n">
+        <v>35.128</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2779.46</v>
+      </c>
+      <c r="M23" t="n">
+        <v>79.798</v>
+      </c>
+      <c r="N23" t="n">
+        <v>512984</v>
+      </c>
+      <c r="O23" t="n">
+        <v>882880</v>
+      </c>
+      <c r="P23" t="n">
+        <v>15003</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>429.315</v>
+      </c>
+      <c r="R23" t="n">
+        <v>40.189</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2161.355</v>
+      </c>
+      <c r="T23" t="n">
+        <v>74.905</v>
+      </c>
+      <c r="U23" t="n">
+        <v>13.6518771331058</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>Universitas Sebelas Maret</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>192.168.1.142</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>sta22-wlan0</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+          <t>02:00:00:00:15:00</t>
+        </is>
+      </c>
+      <c r="Z23" t="b">
+        <v>0</v>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+          <t>203.6.148.253</t>
+        </is>
+      </c>
+      <c r="AB23" t="n">
+        <v>13825</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="AD23" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+          <t>speedtestsrk1.gmedia.net.id</t>
+        </is>
+      </c>
+      <c r="AD23" t="n">
+        <v>8080</v>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>Lintas Data Prima</t>
+          <t>GMEDIA</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>Surakarta</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>2df510c3-0b7e-41ec-9bbb-162323b15e07</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+          <t>https://www.speedtest.net/result/c/2df510c3-0b7e-41ec-9bbb-162323b15e07</t>
+        </is>
+      </c>
+      <c r="AJ23" t="b">
+        <v>1</v>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>Latency test failed</t>
+          <t>No error</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr"/>
@@ -3849,65 +3849,65 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:21Z</t>
+          <t>2024-09-15T08:23:15Z</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>228.308</v>
+        <v>2.518</v>
       </c>
       <c r="D24" t="n">
-        <v>29.154</v>
+        <v>30.505</v>
       </c>
       <c r="E24" t="n">
-        <v>25.941</v>
+        <v>27.669</v>
       </c>
       <c r="F24" t="n">
-        <v>483.113</v>
+        <v>34.552</v>
       </c>
       <c r="G24" t="n">
-        <v>1494224</v>
+        <v>1083952</v>
       </c>
       <c r="H24" t="n">
-        <v>2583285</v>
+        <v>1864792</v>
       </c>
       <c r="I24" t="n">
-        <v>15004</v>
+        <v>12200</v>
       </c>
       <c r="J24" t="n">
-        <v>433.628</v>
+        <v>375.72</v>
       </c>
       <c r="K24" t="n">
-        <v>29.365</v>
+        <v>25.851</v>
       </c>
       <c r="L24" t="n">
-        <v>1913.373</v>
+        <v>1209.298</v>
       </c>
       <c r="M24" t="n">
-        <v>78.485</v>
+        <v>72.56399999999999</v>
       </c>
       <c r="N24" t="n">
-        <v>628784</v>
+        <v>462912</v>
       </c>
       <c r="O24" t="n">
-        <v>1180496</v>
+        <v>758992</v>
       </c>
       <c r="P24" t="n">
-        <v>15000</v>
+        <v>14936</v>
       </c>
       <c r="Q24" t="n">
-        <v>121.1</v>
+        <v>244.746</v>
       </c>
       <c r="R24" t="n">
-        <v>20.642</v>
+        <v>23.83</v>
       </c>
       <c r="S24" t="n">
-        <v>680.028</v>
+        <v>1063.796</v>
       </c>
       <c r="T24" t="n">
-        <v>49.838</v>
+        <v>68.324</v>
       </c>
       <c r="U24" t="n">
-        <v>7.612456747404845</v>
+        <v>14.40329218106996</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -3965,12 +3965,12 @@
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>2c0a4dff-aa4c-4cbd-a641-7c54f07ab68f</t>
+          <t>78312f55-5935-4f67-9698-01b223eb2230</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/2c0a4dff-aa4c-4cbd-a641-7c54f07ab68f</t>
+          <t>https://www.speedtest.net/result/c/78312f55-5935-4f67-9698-01b223eb2230</t>
         </is>
       </c>
       <c r="AJ24" t="b">
@@ -3991,65 +3991,65 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:17Z</t>
+          <t>2024-09-15T08:23:20Z</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5.791</v>
+        <v>6.478</v>
       </c>
       <c r="D25" t="n">
-        <v>32.51</v>
+        <v>33.749</v>
       </c>
       <c r="E25" t="n">
-        <v>27.134</v>
+        <v>30.378</v>
       </c>
       <c r="F25" t="n">
-        <v>42.915</v>
+        <v>44.448</v>
       </c>
       <c r="G25" t="n">
-        <v>1431176</v>
+        <v>1061944</v>
       </c>
       <c r="H25" t="n">
-        <v>2412061</v>
+        <v>1962619</v>
       </c>
       <c r="I25" t="n">
-        <v>13406</v>
+        <v>15009</v>
       </c>
       <c r="J25" t="n">
-        <v>261.09</v>
+        <v>448.883</v>
       </c>
       <c r="K25" t="n">
-        <v>21.668</v>
+        <v>25.83</v>
       </c>
       <c r="L25" t="n">
-        <v>1271.282</v>
+        <v>2802.385</v>
       </c>
       <c r="M25" t="n">
-        <v>67.88500000000001</v>
+        <v>80.265</v>
       </c>
       <c r="N25" t="n">
-        <v>502000</v>
+        <v>1092736</v>
       </c>
       <c r="O25" t="n">
-        <v>884304</v>
+        <v>1881104</v>
       </c>
       <c r="P25" t="n">
-        <v>14999</v>
+        <v>15003</v>
       </c>
       <c r="Q25" t="n">
-        <v>186.943</v>
+        <v>244.499</v>
       </c>
       <c r="R25" t="n">
-        <v>19.815</v>
+        <v>24.485</v>
       </c>
       <c r="S25" t="n">
-        <v>1128.739</v>
+        <v>1122.879</v>
       </c>
       <c r="T25" t="n">
-        <v>58.597</v>
+        <v>61.23</v>
       </c>
       <c r="U25" t="n">
-        <v>15.11111111111111</v>
+        <v>15.35836177474403</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -4107,12 +4107,12 @@
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>f7a4070c-7195-47d3-a63c-aee6805f7250</t>
+          <t>39466204-d702-4d4b-8802-0adf44acd9cb</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/f7a4070c-7195-47d3-a63c-aee6805f7250</t>
+          <t>https://www.speedtest.net/result/c/39466204-d702-4d4b-8802-0adf44acd9cb</t>
         </is>
       </c>
       <c r="AJ25" t="b">
@@ -4133,104 +4133,148 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:13Z</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>3.738</v>
-      </c>
-      <c r="D26" t="n">
-        <v>30.541</v>
-      </c>
-      <c r="E26" t="n">
-        <v>26.629</v>
-      </c>
-      <c r="F26" t="n">
-        <v>32.017</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1131544</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2169632</v>
-      </c>
-      <c r="I26" t="n">
-        <v>15004</v>
-      </c>
-      <c r="J26" t="n">
-        <v>380.193</v>
-      </c>
-      <c r="K26" t="n">
-        <v>23.15</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3017.505</v>
-      </c>
-      <c r="M26" t="n">
-        <v>78.14100000000001</v>
-      </c>
-      <c r="N26" t="n">
-        <v>268512</v>
-      </c>
-      <c r="O26" t="n">
-        <v>290496</v>
-      </c>
-      <c r="P26" t="n">
-        <v>8702</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>133.978</v>
-      </c>
-      <c r="R26" t="n">
-        <v>23.072</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1217.273</v>
-      </c>
-      <c r="T26" t="n">
-        <v>52.038</v>
-      </c>
-      <c r="U26" t="n">
-        <v>5.610561056105611</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Universitas Sebelas Maret</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>192.168.1.138</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>sta25-wlan0</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>02:00:00:00:18:00</t>
-        </is>
-      </c>
-      <c r="Z26" t="b">
-        <v>0</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>203.6.148.253</t>
-        </is>
-      </c>
-      <c r="AB26" t="n">
-        <v>41848</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>sukoharjo-ookla.gmdp.net.id</t>
-        </is>
-      </c>
-      <c r="AD26" t="n">
-        <v>8080</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
@@ -4239,30 +4283,32 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>Sukoharjo</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>ceaf1314-662e-449b-926d-947f38c02436</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/ceaf1314-662e-449b-926d-947f38c02436</t>
-        </is>
-      </c>
-      <c r="AJ26" t="b">
-        <v>1</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>No error</t>
+          <t xml:space="preserve">Cannot write: </t>
         </is>
       </c>
       <c r="AL26" t="inlineStr"/>
@@ -4275,65 +4321,65 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:15Z</t>
+          <t>2024-09-15T08:23:18Z</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.719</v>
+        <v>131.797</v>
       </c>
       <c r="D27" t="n">
-        <v>41.108</v>
+        <v>44.03</v>
       </c>
       <c r="E27" t="n">
-        <v>38.042</v>
+        <v>40.685</v>
       </c>
       <c r="F27" t="n">
-        <v>44.72</v>
+        <v>300.837</v>
       </c>
       <c r="G27" t="n">
-        <v>895808</v>
+        <v>866784</v>
       </c>
       <c r="H27" t="n">
-        <v>1241669</v>
+        <v>1644798</v>
       </c>
       <c r="I27" t="n">
-        <v>11700</v>
+        <v>15009</v>
       </c>
       <c r="J27" t="n">
-        <v>418.534</v>
+        <v>936.29</v>
       </c>
       <c r="K27" t="n">
-        <v>36.596</v>
+        <v>56.616</v>
       </c>
       <c r="L27" t="n">
-        <v>1386.274</v>
+        <v>2061.414</v>
       </c>
       <c r="M27" t="n">
-        <v>76.33799999999999</v>
+        <v>93.527</v>
       </c>
       <c r="N27" t="n">
-        <v>560888</v>
+        <v>605504</v>
       </c>
       <c r="O27" t="n">
-        <v>1009616</v>
+        <v>1070848</v>
       </c>
       <c r="P27" t="n">
-        <v>14944</v>
+        <v>14989</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.829</v>
+        <v>308.125</v>
       </c>
       <c r="R27" t="n">
-        <v>35.284</v>
+        <v>37.176</v>
       </c>
       <c r="S27" t="n">
-        <v>1088.749</v>
+        <v>989.043</v>
       </c>
       <c r="T27" t="n">
-        <v>56.755</v>
+        <v>69.066</v>
       </c>
       <c r="U27" t="n">
-        <v>6.880733944954128</v>
+        <v>8.389261744966444</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -4391,12 +4437,12 @@
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>438638b2-dd79-4842-adfa-6c769caeb1c8</t>
+          <t>acc5f70f-5b81-4f1d-8146-8817615108f6</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/438638b2-dd79-4842-adfa-6c769caeb1c8</t>
+          <t>https://www.speedtest.net/result/c/acc5f70f-5b81-4f1d-8146-8817615108f6</t>
         </is>
       </c>
       <c r="AJ27" t="b">
@@ -4417,65 +4463,65 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:16Z</t>
+          <t>2024-09-15T08:23:19Z</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>172.32</v>
+        <v>114.996</v>
       </c>
       <c r="D28" t="n">
-        <v>97.092</v>
+        <v>32.554</v>
       </c>
       <c r="E28" t="n">
-        <v>25.991</v>
+        <v>29.041</v>
       </c>
       <c r="F28" t="n">
-        <v>257.626</v>
+        <v>260.494</v>
       </c>
       <c r="G28" t="n">
-        <v>945336</v>
+        <v>1140920</v>
       </c>
       <c r="H28" t="n">
-        <v>1831263</v>
+        <v>2084912</v>
       </c>
       <c r="I28" t="n">
-        <v>15001</v>
+        <v>15015</v>
       </c>
       <c r="J28" t="n">
-        <v>240.211</v>
+        <v>572.316</v>
       </c>
       <c r="K28" t="n">
-        <v>27.35</v>
+        <v>29.011</v>
       </c>
       <c r="L28" t="n">
-        <v>1310.412</v>
+        <v>2220.514</v>
       </c>
       <c r="M28" t="n">
-        <v>70.336</v>
+        <v>82.761</v>
       </c>
       <c r="N28" t="n">
-        <v>617208</v>
+        <v>563976</v>
       </c>
       <c r="O28" t="n">
-        <v>1149168</v>
+        <v>991104</v>
       </c>
       <c r="P28" t="n">
-        <v>14994</v>
+        <v>15010</v>
       </c>
       <c r="Q28" t="n">
-        <v>262.539</v>
+        <v>201.52</v>
       </c>
       <c r="R28" t="n">
-        <v>22.429</v>
+        <v>26.991</v>
       </c>
       <c r="S28" t="n">
-        <v>1344.951</v>
+        <v>900.543</v>
       </c>
       <c r="T28" t="n">
-        <v>67.002</v>
+        <v>62.544</v>
       </c>
       <c r="U28" t="n">
-        <v>9.183673469387756</v>
+        <v>13.8047138047138</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -4533,12 +4579,12 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>fb2a1943-cfb9-4bec-a1ef-9142f77aa155</t>
+          <t>ad965fc8-6fc4-4e32-b100-14c1de8c577e</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/fb2a1943-cfb9-4bec-a1ef-9142f77aa155</t>
+          <t>https://www.speedtest.net/result/c/ad965fc8-6fc4-4e32-b100-14c1de8c577e</t>
         </is>
       </c>
       <c r="AJ28" t="b">
@@ -4559,73 +4605,65 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:18Z</t>
+          <t>2024-09-15T08:23:17Z</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>62.81</v>
+        <v>116.657</v>
       </c>
       <c r="D29" t="n">
-        <v>30.707</v>
+        <v>35.55</v>
       </c>
       <c r="E29" t="n">
-        <v>27.534</v>
+        <v>27.808</v>
       </c>
       <c r="F29" t="n">
-        <v>269.326</v>
+        <v>263.528</v>
       </c>
       <c r="G29" t="n">
-        <v>1437232</v>
+        <v>972952</v>
       </c>
       <c r="H29" t="n">
-        <v>2919019</v>
+        <v>1925877</v>
       </c>
       <c r="I29" t="n">
         <v>15006</v>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+      <c r="J29" t="n">
+        <v>333.856</v>
+      </c>
+      <c r="K29" t="n">
+        <v>29.515</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2301.949</v>
+      </c>
+      <c r="M29" t="n">
+        <v>72.184</v>
       </c>
       <c r="N29" t="n">
-        <v>988048</v>
+        <v>590936</v>
       </c>
       <c r="O29" t="n">
-        <v>1804208</v>
+        <v>1213248</v>
       </c>
       <c r="P29" t="n">
-        <v>15002</v>
+        <v>15005</v>
       </c>
       <c r="Q29" t="n">
-        <v>196.468</v>
+        <v>410.678</v>
       </c>
       <c r="R29" t="n">
-        <v>21.793</v>
+        <v>27.766</v>
       </c>
       <c r="S29" t="n">
-        <v>1509.132</v>
+        <v>3708.52</v>
       </c>
       <c r="T29" t="n">
-        <v>59.817</v>
+        <v>76.634</v>
       </c>
       <c r="U29" t="n">
-        <v>13.75838926174497</v>
+        <v>18.72791519434629</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -4683,12 +4721,12 @@
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>fdcac809-314c-49d1-8e2c-1e70012cedaf</t>
+          <t>27d671ff-6d85-4445-8995-da48d88a2c07</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/fdcac809-314c-49d1-8e2c-1e70012cedaf</t>
+          <t>https://www.speedtest.net/result/c/27d671ff-6d85-4445-8995-da48d88a2c07</t>
         </is>
       </c>
       <c r="AJ29" t="b">
@@ -4709,104 +4747,148 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:13Z</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>59.85</v>
-      </c>
-      <c r="D30" t="n">
-        <v>33.527</v>
-      </c>
-      <c r="E30" t="n">
-        <v>29.152</v>
-      </c>
-      <c r="F30" t="n">
-        <v>259.367</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1836320</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2112936</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9010</v>
-      </c>
-      <c r="J30" t="n">
-        <v>318.745</v>
-      </c>
-      <c r="K30" t="n">
-        <v>25.439</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1629.568</v>
-      </c>
-      <c r="M30" t="n">
-        <v>74.47</v>
-      </c>
-      <c r="N30" t="n">
-        <v>595544</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1025280</v>
-      </c>
-      <c r="P30" t="n">
-        <v>14995</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>148.634</v>
-      </c>
-      <c r="R30" t="n">
-        <v>17.877</v>
-      </c>
-      <c r="S30" t="n">
-        <v>942.727</v>
-      </c>
-      <c r="T30" t="n">
-        <v>52.512</v>
-      </c>
-      <c r="U30" t="n">
-        <v>3.35195530726257</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Universitas Sebelas Maret</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>192.168.1.184</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>sta29-wlan0</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>02:00:00:00:1C:00</t>
-        </is>
-      </c>
-      <c r="Z30" t="b">
-        <v>0</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>203.6.148.253</t>
-        </is>
-      </c>
-      <c r="AB30" t="n">
-        <v>41848</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>sukoharjo-ookla.gmdp.net.id</t>
-        </is>
-      </c>
-      <c r="AD30" t="n">
-        <v>8080</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
@@ -4815,30 +4897,32 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>Sukoharjo</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>1f9e8c80-1a7e-47b4-8f54-4bcaa2878481</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/1f9e8c80-1a7e-47b4-8f54-4bcaa2878481</t>
-        </is>
-      </c>
-      <c r="AJ30" t="b">
-        <v>1</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>No error</t>
+          <t>Latency test failed</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr"/>
@@ -4851,65 +4935,65 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:23Z</t>
+          <t>2024-09-15T08:23:17Z</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>266.418</v>
+        <v>126.654</v>
       </c>
       <c r="D31" t="n">
-        <v>44.147</v>
+        <v>43.024</v>
       </c>
       <c r="E31" t="n">
-        <v>37.855</v>
+        <v>37.557</v>
       </c>
       <c r="F31" t="n">
-        <v>569.609</v>
+        <v>291.882</v>
       </c>
       <c r="G31" t="n">
-        <v>1295544</v>
+        <v>708392</v>
       </c>
       <c r="H31" t="n">
-        <v>2116166</v>
+        <v>934320</v>
       </c>
       <c r="I31" t="n">
-        <v>15010</v>
+        <v>10707</v>
       </c>
       <c r="J31" t="n">
-        <v>347.418</v>
+        <v>315.291</v>
       </c>
       <c r="K31" t="n">
-        <v>35.96</v>
+        <v>43.153</v>
       </c>
       <c r="L31" t="n">
-        <v>3043.895</v>
+        <v>1188.779</v>
       </c>
       <c r="M31" t="n">
-        <v>66.63200000000001</v>
+        <v>71.911</v>
       </c>
       <c r="N31" t="n">
-        <v>5769584</v>
+        <v>496016</v>
       </c>
       <c r="O31" t="n">
-        <v>9634784</v>
+        <v>837312</v>
       </c>
       <c r="P31" t="n">
-        <v>14997</v>
+        <v>14468</v>
       </c>
       <c r="Q31" t="n">
-        <v>129.13</v>
+        <v>245.277</v>
       </c>
       <c r="R31" t="n">
-        <v>30.268</v>
+        <v>40.361</v>
       </c>
       <c r="S31" t="n">
-        <v>1279.038</v>
+        <v>1130.424</v>
       </c>
       <c r="T31" t="n">
-        <v>44.153</v>
+        <v>64.044</v>
       </c>
       <c r="U31" t="n">
-        <v>4.498269896193771</v>
+        <v>12.5</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -4967,12 +5051,12 @@
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>f4029908-3b13-43da-a620-1800d4e2a6ff</t>
+          <t>204e7a8f-997a-40c7-b392-72cfde6b14b7</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/f4029908-3b13-43da-a620-1800d4e2a6ff</t>
+          <t>https://www.speedtest.net/result/c/204e7a8f-997a-40c7-b392-72cfde6b14b7</t>
         </is>
       </c>
       <c r="AJ31" t="b">
@@ -4993,182 +5077,136 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+          <t>2024-09-15T08:23:16Z</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>121.575</v>
+      </c>
+      <c r="D32" t="n">
+        <v>32.197</v>
+      </c>
+      <c r="E32" t="n">
+        <v>28.412</v>
+      </c>
+      <c r="F32" t="n">
+        <v>262.859</v>
+      </c>
+      <c r="G32" t="n">
+        <v>966408</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1602295</v>
+      </c>
+      <c r="I32" t="n">
+        <v>15007</v>
+      </c>
+      <c r="J32" t="n">
+        <v>496.537</v>
+      </c>
+      <c r="K32" t="n">
+        <v>22.919</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2738.614</v>
+      </c>
+      <c r="M32" t="n">
+        <v>80.91</v>
+      </c>
+      <c r="N32" t="n">
+        <v>524144</v>
+      </c>
+      <c r="O32" t="n">
+        <v>908512</v>
+      </c>
+      <c r="P32" t="n">
+        <v>14535</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>417.53</v>
+      </c>
+      <c r="R32" t="n">
+        <v>29.811</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2974.763</v>
+      </c>
+      <c r="T32" t="n">
+        <v>76.88</v>
+      </c>
+      <c r="U32" t="n">
+        <v>14.02877697841727</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>Universitas Sebelas Maret</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>192.168.1.132</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>sta31-wlan0</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+          <t>02:00:00:00:1E:00</t>
+        </is>
+      </c>
+      <c r="Z32" t="b">
+        <v>0</v>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+          <t>203.6.148.253</t>
+        </is>
+      </c>
+      <c r="AB32" t="n">
+        <v>33207</v>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="AD32" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+          <t>speedtest.gsmnet.id</t>
+        </is>
+      </c>
+      <c r="AD32" t="n">
+        <v>8080</v>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>Citranet</t>
+          <t>Lintas Data Prima</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>Surakarta</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>3e32a59a-b7fb-48be-9955-204a14a8c05b</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+          <t>https://www.speedtest.net/result/c/3e32a59a-b7fb-48be-9955-204a14a8c05b</t>
+        </is>
+      </c>
+      <c r="AJ32" t="b">
+        <v>1</v>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>Latency test failed</t>
+          <t>No error</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr"/>
@@ -5181,65 +5219,65 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:19Z</t>
+          <t>2024-09-15T08:23:26Z</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>123.248</v>
+        <v>778.359</v>
       </c>
       <c r="D33" t="n">
-        <v>199.819</v>
+        <v>35.39</v>
       </c>
       <c r="E33" t="n">
-        <v>36.508</v>
+        <v>27.912</v>
       </c>
       <c r="F33" t="n">
-        <v>511.374</v>
+        <v>1589.202</v>
       </c>
       <c r="G33" t="n">
-        <v>838824</v>
+        <v>1984960</v>
       </c>
       <c r="H33" t="n">
-        <v>1446320</v>
+        <v>3254397</v>
       </c>
       <c r="I33" t="n">
-        <v>15008</v>
+        <v>15000</v>
       </c>
       <c r="J33" t="n">
-        <v>396.044</v>
+        <v>392.232</v>
       </c>
       <c r="K33" t="n">
-        <v>27.816</v>
+        <v>37.084</v>
       </c>
       <c r="L33" t="n">
-        <v>1727.989</v>
+        <v>617.951</v>
       </c>
       <c r="M33" t="n">
-        <v>73.688</v>
+        <v>98.014</v>
       </c>
       <c r="N33" t="n">
-        <v>649384</v>
+        <v>4632944</v>
       </c>
       <c r="O33" t="n">
-        <v>1191888</v>
+        <v>7770768</v>
       </c>
       <c r="P33" t="n">
-        <v>14993</v>
+        <v>15003</v>
       </c>
       <c r="Q33" t="n">
-        <v>196.647</v>
+        <v>128.265</v>
       </c>
       <c r="R33" t="n">
-        <v>23.393</v>
+        <v>17.444</v>
       </c>
       <c r="S33" t="n">
-        <v>1728.095</v>
+        <v>951.547</v>
       </c>
       <c r="T33" t="n">
-        <v>60.589</v>
+        <v>52.607</v>
       </c>
       <c r="U33" t="n">
-        <v>5.776173285198556</v>
+        <v>13.99317406143345</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -5297,12 +5335,12 @@
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>be7817d3-7786-4f32-aa54-86cf8031871f</t>
+          <t>37e4003f-e20b-4146-a072-b4ffe975e005</t>
         </is>
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/be7817d3-7786-4f32-aa54-86cf8031871f</t>
+          <t>https://www.speedtest.net/result/c/37e4003f-e20b-4146-a072-b4ffe975e005</t>
         </is>
       </c>
       <c r="AJ33" t="b">
@@ -5323,65 +5361,65 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:09Z</t>
+          <t>2024-09-15T08:23:17Z</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>116.572</v>
+        <v>64.14100000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>31.102</v>
+        <v>37.813</v>
       </c>
       <c r="E34" t="n">
-        <v>26.965</v>
+        <v>27.053</v>
       </c>
       <c r="F34" t="n">
-        <v>257.201</v>
+        <v>279.319</v>
       </c>
       <c r="G34" t="n">
-        <v>915320</v>
+        <v>1016432</v>
       </c>
       <c r="H34" t="n">
-        <v>1169878</v>
+        <v>1242423</v>
       </c>
       <c r="I34" t="n">
-        <v>9202</v>
+        <v>9913</v>
       </c>
       <c r="J34" t="n">
-        <v>916.433</v>
+        <v>323.5</v>
       </c>
       <c r="K34" t="n">
-        <v>26.422</v>
+        <v>26.319</v>
       </c>
       <c r="L34" t="n">
-        <v>2983.915</v>
+        <v>1584.237</v>
       </c>
       <c r="M34" t="n">
-        <v>87.84399999999999</v>
+        <v>73.619</v>
       </c>
       <c r="N34" t="n">
-        <v>411656</v>
+        <v>464064</v>
       </c>
       <c r="O34" t="n">
-        <v>489856</v>
+        <v>674976</v>
       </c>
       <c r="P34" t="n">
-        <v>10027</v>
+        <v>12295</v>
       </c>
       <c r="Q34" t="n">
-        <v>353.672</v>
+        <v>581.059</v>
       </c>
       <c r="R34" t="n">
-        <v>22.159</v>
+        <v>29.601</v>
       </c>
       <c r="S34" t="n">
-        <v>1754.032</v>
+        <v>2062.469</v>
       </c>
       <c r="T34" t="n">
-        <v>71.402</v>
+        <v>83.643</v>
       </c>
       <c r="U34" t="n">
-        <v>9.55056179775281</v>
+        <v>12.04188481675393</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -5439,12 +5477,12 @@
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>e7c555d3-c1df-4bd3-88e3-1d0ede2a25da</t>
+          <t>e1005e27-a0e8-4e74-9921-d589cfa8704c</t>
         </is>
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/e7c555d3-c1df-4bd3-88e3-1d0ede2a25da</t>
+          <t>https://www.speedtest.net/result/c/e1005e27-a0e8-4e74-9921-d589cfa8704c</t>
         </is>
       </c>
       <c r="AJ34" t="b">
@@ -5465,182 +5503,136 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+          <t>2024-09-15T08:23:23Z</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>248.835</v>
+      </c>
+      <c r="D35" t="n">
+        <v>39.098</v>
+      </c>
+      <c r="E35" t="n">
+        <v>37.312</v>
+      </c>
+      <c r="F35" t="n">
+        <v>534.187</v>
+      </c>
+      <c r="G35" t="n">
+        <v>890656</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1699769</v>
+      </c>
+      <c r="I35" t="n">
+        <v>12916</v>
+      </c>
+      <c r="J35" t="n">
+        <v>447.44</v>
+      </c>
+      <c r="K35" t="n">
+        <v>47.444</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1633.774</v>
+      </c>
+      <c r="M35" t="n">
+        <v>76.27500000000001</v>
+      </c>
+      <c r="N35" t="n">
+        <v>613536</v>
+      </c>
+      <c r="O35" t="n">
+        <v>802147</v>
+      </c>
+      <c r="P35" t="n">
+        <v>15012</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>377.172</v>
+      </c>
+      <c r="R35" t="n">
+        <v>50.968</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1608.412</v>
+      </c>
+      <c r="T35" t="n">
+        <v>75.10299999999999</v>
+      </c>
+      <c r="U35" t="n">
+        <v>16.34241245136187</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>Universitas Sebelas Maret</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>192.168.1.129</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>sta34-wlan0</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+          <t>02:00:00:00:21:00</t>
+        </is>
+      </c>
+      <c r="Z35" t="b">
+        <v>0</v>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+          <t>203.6.148.253</t>
+        </is>
+      </c>
+      <c r="AB35" t="n">
+        <v>13825</v>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="AD35" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+          <t>speedtestsrk1.gmedia.net.id</t>
+        </is>
+      </c>
+      <c r="AD35" t="n">
+        <v>8080</v>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>Lintas Data Prima</t>
+          <t>GMEDIA</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>Surakarta</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>54aeaf1c-e49e-4aee-9d92-be3674e4af89</t>
         </is>
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+          <t>https://www.speedtest.net/result/c/54aeaf1c-e49e-4aee-9d92-be3674e4af89</t>
+        </is>
+      </c>
+      <c r="AJ35" t="b">
+        <v>1</v>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>Latency test failed</t>
+          <t>No error</t>
         </is>
       </c>
       <c r="AL35" t="inlineStr"/>
@@ -5653,65 +5645,65 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:20Z</t>
+          <t>2024-09-15T08:23:20Z</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>125.616</v>
+        <v>116.772</v>
       </c>
       <c r="D36" t="n">
-        <v>39.606</v>
+        <v>37.275</v>
       </c>
       <c r="E36" t="n">
-        <v>33.425</v>
+        <v>30.311</v>
       </c>
       <c r="F36" t="n">
-        <v>286.404</v>
+        <v>487.483</v>
       </c>
       <c r="G36" t="n">
-        <v>1251240</v>
+        <v>1266264</v>
       </c>
       <c r="H36" t="n">
-        <v>1895028</v>
+        <v>2395282</v>
       </c>
       <c r="I36" t="n">
-        <v>15001</v>
+        <v>15009</v>
       </c>
       <c r="J36" t="n">
-        <v>520.192</v>
+        <v>555.495</v>
       </c>
       <c r="K36" t="n">
-        <v>27.874</v>
+        <v>27.053</v>
       </c>
       <c r="L36" t="n">
-        <v>2742.204</v>
+        <v>2213.705</v>
       </c>
       <c r="M36" t="n">
-        <v>82.205</v>
+        <v>78.36799999999999</v>
       </c>
       <c r="N36" t="n">
-        <v>1896208</v>
+        <v>412168</v>
       </c>
       <c r="O36" t="n">
-        <v>3280896</v>
+        <v>815952</v>
       </c>
       <c r="P36" t="n">
-        <v>15007</v>
+        <v>14860</v>
       </c>
       <c r="Q36" t="n">
-        <v>83.688</v>
+        <v>192.189</v>
       </c>
       <c r="R36" t="n">
-        <v>16.525</v>
+        <v>23.006</v>
       </c>
       <c r="S36" t="n">
-        <v>1000.235</v>
+        <v>891.744</v>
       </c>
       <c r="T36" t="n">
-        <v>41.895</v>
+        <v>58.125</v>
       </c>
       <c r="U36" t="n">
-        <v>10.23890784982935</v>
+        <v>17.70833333333333</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -5769,12 +5761,12 @@
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>37180d7f-90c8-4671-82fd-9cba6b8aa6d0</t>
+          <t>a837b336-8a19-4cd1-a08c-aac02c775761</t>
         </is>
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/37180d7f-90c8-4671-82fd-9cba6b8aa6d0</t>
+          <t>https://www.speedtest.net/result/c/a837b336-8a19-4cd1-a08c-aac02c775761</t>
         </is>
       </c>
       <c r="AJ36" t="b">
@@ -5795,65 +5787,65 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:20Z</t>
+          <t>2024-09-15T08:23:21Z</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3.951</v>
+        <v>383.906</v>
       </c>
       <c r="D37" t="n">
-        <v>36.229</v>
+        <v>41.611</v>
       </c>
       <c r="E37" t="n">
-        <v>32.518</v>
+        <v>31.768</v>
       </c>
       <c r="F37" t="n">
-        <v>40.606</v>
+        <v>1564.513</v>
       </c>
       <c r="G37" t="n">
-        <v>1386568</v>
+        <v>1130144</v>
       </c>
       <c r="H37" t="n">
-        <v>2598976</v>
+        <v>2203940</v>
       </c>
       <c r="I37" t="n">
-        <v>15003</v>
+        <v>15007</v>
       </c>
       <c r="J37" t="n">
-        <v>292.935</v>
+        <v>309.991</v>
       </c>
       <c r="K37" t="n">
-        <v>25.455</v>
+        <v>27.073</v>
       </c>
       <c r="L37" t="n">
-        <v>1438.734</v>
+        <v>1071.238</v>
       </c>
       <c r="M37" t="n">
-        <v>71.32899999999999</v>
+        <v>68.762</v>
       </c>
       <c r="N37" t="n">
-        <v>1995672</v>
+        <v>860328</v>
       </c>
       <c r="O37" t="n">
-        <v>3520128</v>
+        <v>1566400</v>
       </c>
       <c r="P37" t="n">
-        <v>14990</v>
+        <v>14999</v>
       </c>
       <c r="Q37" t="n">
-        <v>147.234</v>
+        <v>200.402</v>
       </c>
       <c r="R37" t="n">
-        <v>19.424</v>
+        <v>25.768</v>
       </c>
       <c r="S37" t="n">
-        <v>897.154</v>
+        <v>1830.444</v>
       </c>
       <c r="T37" t="n">
-        <v>49.504</v>
+        <v>59.936</v>
       </c>
       <c r="U37" t="n">
-        <v>11.94539249146758</v>
+        <v>15.77181208053691</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -5911,12 +5903,12 @@
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>029bb3d8-ede3-41ca-81fc-70045245cd4a</t>
+          <t>6d1bd0d2-c3a1-4b73-8056-36ad06fa9fa2</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/029bb3d8-ede3-41ca-81fc-70045245cd4a</t>
+          <t>https://www.speedtest.net/result/c/6d1bd0d2-c3a1-4b73-8056-36ad06fa9fa2</t>
         </is>
       </c>
       <c r="AJ37" t="b">
@@ -5937,65 +5929,65 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:21Z</t>
+          <t>2024-09-15T08:23:26Z</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>121.917</v>
+        <v>1206.75</v>
       </c>
       <c r="D38" t="n">
-        <v>40.311</v>
+        <v>44.168</v>
       </c>
       <c r="E38" t="n">
-        <v>38.181</v>
+        <v>30.727</v>
       </c>
       <c r="F38" t="n">
-        <v>279.299</v>
+        <v>2456.74</v>
       </c>
       <c r="G38" t="n">
-        <v>1340280</v>
+        <v>1683208</v>
       </c>
       <c r="H38" t="n">
-        <v>2572108</v>
+        <v>2761036</v>
       </c>
       <c r="I38" t="n">
-        <v>15011</v>
+        <v>15007</v>
       </c>
       <c r="J38" t="n">
-        <v>265.826</v>
+        <v>463.968</v>
       </c>
       <c r="K38" t="n">
-        <v>24.285</v>
+        <v>25.707</v>
       </c>
       <c r="L38" t="n">
-        <v>1386.559</v>
+        <v>1789.944</v>
       </c>
       <c r="M38" t="n">
-        <v>71.846</v>
+        <v>80.88500000000001</v>
       </c>
       <c r="N38" t="n">
-        <v>2531552</v>
+        <v>4014592</v>
       </c>
       <c r="O38" t="n">
-        <v>4291936</v>
+        <v>6752608</v>
       </c>
       <c r="P38" t="n">
-        <v>14999</v>
+        <v>14992</v>
       </c>
       <c r="Q38" t="n">
-        <v>118.672</v>
+        <v>75.574</v>
       </c>
       <c r="R38" t="n">
-        <v>18.942</v>
+        <v>16.454</v>
       </c>
       <c r="S38" t="n">
-        <v>1661.256</v>
+        <v>1099.703</v>
       </c>
       <c r="T38" t="n">
-        <v>48.314</v>
+        <v>40.688</v>
       </c>
       <c r="U38" t="n">
-        <v>9.868421052631579</v>
+        <v>11.88118811881188</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -6053,12 +6045,12 @@
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>b5b5e88e-64e5-4daa-a412-e2bf1987e28b</t>
+          <t>8f41f7bf-16ea-441f-88d4-01c151d48888</t>
         </is>
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/b5b5e88e-64e5-4daa-a412-e2bf1987e28b</t>
+          <t>https://www.speedtest.net/result/c/8f41f7bf-16ea-441f-88d4-01c151d48888</t>
         </is>
       </c>
       <c r="AJ38" t="b">
@@ -6079,29 +6071,43 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:21Z</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>64.67</v>
-      </c>
-      <c r="D39" t="n">
-        <v>46.64</v>
-      </c>
-      <c r="E39" t="n">
-        <v>38.617</v>
-      </c>
-      <c r="F39" t="n">
-        <v>288.297</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1092448</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2114307</v>
-      </c>
-      <c r="I39" t="n">
-        <v>15001</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -6123,68 +6129,90 @@
           <t>error</t>
         </is>
       </c>
-      <c r="N39" t="n">
-        <v>1735296</v>
-      </c>
-      <c r="O39" t="n">
-        <v>3017456</v>
-      </c>
-      <c r="P39" t="n">
-        <v>14996</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>124.377</v>
-      </c>
-      <c r="R39" t="n">
-        <v>31.665</v>
-      </c>
-      <c r="S39" t="n">
-        <v>646.539</v>
-      </c>
-      <c r="T39" t="n">
-        <v>45.128</v>
-      </c>
-      <c r="U39" t="n">
-        <v>6.040268456375839</v>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Universitas Sebelas Maret</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>192.168.1.176</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>sta38-wlan0</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>02:00:00:00:25:00</t>
-        </is>
-      </c>
-      <c r="Z39" t="b">
-        <v>0</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>203.6.148.253</t>
-        </is>
-      </c>
-      <c r="AB39" t="n">
-        <v>13825</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>speedtestsrk1.gmedia.net.id</t>
-        </is>
-      </c>
-      <c r="AD39" t="n">
-        <v>8080</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
@@ -6193,30 +6221,32 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>Surakarta</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>98fd9f44-f0ae-4d37-b09c-d0cd39fb8c9a</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/98fd9f44-f0ae-4d37-b09c-d0cd39fb8c9a</t>
-        </is>
-      </c>
-      <c r="AJ39" t="b">
-        <v>1</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>No error</t>
+          <t>Latency test failed</t>
         </is>
       </c>
       <c r="AL39" t="inlineStr"/>
@@ -6229,182 +6259,136 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+          <t>2024-09-15T08:23:18Z</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>121.379</v>
+      </c>
+      <c r="D40" t="n">
+        <v>34.092</v>
+      </c>
+      <c r="E40" t="n">
+        <v>31.076</v>
+      </c>
+      <c r="F40" t="n">
+        <v>506.291</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1250320</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2071613</v>
+      </c>
+      <c r="I40" t="n">
+        <v>15010</v>
+      </c>
+      <c r="J40" t="n">
+        <v>415.038</v>
+      </c>
+      <c r="K40" t="n">
+        <v>24.028</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2869.528</v>
+      </c>
+      <c r="M40" t="n">
+        <v>80.592</v>
+      </c>
+      <c r="N40" t="n">
+        <v>730160</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1274480</v>
+      </c>
+      <c r="P40" t="n">
+        <v>14255</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>342.015</v>
+      </c>
+      <c r="R40" t="n">
+        <v>26.052</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1865.505</v>
+      </c>
+      <c r="T40" t="n">
+        <v>76.181</v>
+      </c>
+      <c r="U40" t="n">
+        <v>15.41501976284585</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>Universitas Sebelas Maret</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>192.168.1.224</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>sta39-wlan0</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+          <t>02:00:00:00:26:00</t>
+        </is>
+      </c>
+      <c r="Z40" t="b">
+        <v>0</v>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+          <t>203.6.148.253</t>
+        </is>
+      </c>
+      <c r="AB40" t="n">
+        <v>33207</v>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="AD40" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+          <t>speedtest.gsmnet.id</t>
+        </is>
+      </c>
+      <c r="AD40" t="n">
+        <v>8080</v>
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>Citranet</t>
+          <t>Lintas Data Prima</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>Surakarta</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>24a6086b-dd4e-490d-a317-ee618389fa88</t>
         </is>
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="AJ40" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
+          <t>https://www.speedtest.net/result/c/24a6086b-dd4e-490d-a317-ee618389fa88</t>
+        </is>
+      </c>
+      <c r="AJ40" t="b">
+        <v>1</v>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>Latency test failed</t>
+          <t>No error</t>
         </is>
       </c>
       <c r="AL40" t="inlineStr"/>
@@ -6417,65 +6401,65 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:20Z</t>
+          <t>2024-09-15T08:23:21Z</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>119.174</v>
+        <v>59.911</v>
       </c>
       <c r="D41" t="n">
-        <v>37.238</v>
+        <v>260.995</v>
       </c>
       <c r="E41" t="n">
-        <v>31.644</v>
+        <v>29.452</v>
       </c>
       <c r="F41" t="n">
-        <v>274.014</v>
+        <v>263.41</v>
       </c>
       <c r="G41" t="n">
-        <v>960576</v>
+        <v>919848</v>
       </c>
       <c r="H41" t="n">
-        <v>2080226</v>
+        <v>1353178</v>
       </c>
       <c r="I41" t="n">
-        <v>15009</v>
+        <v>15013</v>
       </c>
       <c r="J41" t="n">
-        <v>294.223</v>
+        <v>623.875</v>
       </c>
       <c r="K41" t="n">
-        <v>24.361</v>
+        <v>29.296</v>
       </c>
       <c r="L41" t="n">
-        <v>2343.914</v>
+        <v>3255.328</v>
       </c>
       <c r="M41" t="n">
-        <v>73.486</v>
+        <v>81.526</v>
       </c>
       <c r="N41" t="n">
-        <v>1109488</v>
+        <v>820080</v>
       </c>
       <c r="O41" t="n">
-        <v>2002144</v>
+        <v>1513712</v>
       </c>
       <c r="P41" t="n">
-        <v>14990</v>
+        <v>14992</v>
       </c>
       <c r="Q41" t="n">
-        <v>110.011</v>
+        <v>260.22</v>
       </c>
       <c r="R41" t="n">
-        <v>23.573</v>
+        <v>24.488</v>
       </c>
       <c r="S41" t="n">
-        <v>610.2619999999999</v>
+        <v>1378.998</v>
       </c>
       <c r="T41" t="n">
-        <v>44.799</v>
+        <v>66.18600000000001</v>
       </c>
       <c r="U41" t="n">
-        <v>9.717868338557993</v>
+        <v>12.4031007751938</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -6533,12 +6517,12 @@
       </c>
       <c r="AH41" t="inlineStr">
         <is>
-          <t>556d810e-9781-4254-b5b4-e5e2656b8c97</t>
+          <t>3b6b2211-bcf9-4ac5-a5e5-2722a9f3064b</t>
         </is>
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/556d810e-9781-4254-b5b4-e5e2656b8c97</t>
+          <t>https://www.speedtest.net/result/c/3b6b2211-bcf9-4ac5-a5e5-2722a9f3064b</t>
         </is>
       </c>
       <c r="AJ41" t="b">
@@ -6559,65 +6543,65 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:22Z</t>
+          <t>2024-09-15T08:23:19Z</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>294.053</v>
+        <v>322.207</v>
       </c>
       <c r="D42" t="n">
-        <v>178.042</v>
+        <v>117.005</v>
       </c>
       <c r="E42" t="n">
-        <v>27.788</v>
+        <v>31.341</v>
       </c>
       <c r="F42" t="n">
-        <v>620.231</v>
+        <v>557.9930000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>1368904</v>
+        <v>1013024</v>
       </c>
       <c r="H42" t="n">
-        <v>2497696</v>
+        <v>1673688</v>
       </c>
       <c r="I42" t="n">
-        <v>15004</v>
+        <v>13600</v>
       </c>
       <c r="J42" t="n">
-        <v>209.39</v>
+        <v>212.699</v>
       </c>
       <c r="K42" t="n">
-        <v>28.758</v>
+        <v>24.186</v>
       </c>
       <c r="L42" t="n">
-        <v>768.179</v>
+        <v>1397.366</v>
       </c>
       <c r="M42" t="n">
-        <v>65.655</v>
+        <v>62.562</v>
       </c>
       <c r="N42" t="n">
-        <v>1882080</v>
+        <v>662280</v>
       </c>
       <c r="O42" t="n">
-        <v>3317920</v>
+        <v>1241728</v>
       </c>
       <c r="P42" t="n">
-        <v>14997</v>
+        <v>15007</v>
       </c>
       <c r="Q42" t="n">
-        <v>124.733</v>
+        <v>338.632</v>
       </c>
       <c r="R42" t="n">
-        <v>19.212</v>
+        <v>20.951</v>
       </c>
       <c r="S42" t="n">
-        <v>745.9109999999999</v>
+        <v>2581.428</v>
       </c>
       <c r="T42" t="n">
-        <v>51.088</v>
+        <v>65.041</v>
       </c>
       <c r="U42" t="n">
-        <v>6.040268456375839</v>
+        <v>12.96296296296296</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -6675,12 +6659,12 @@
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>6c47d268-6f67-49b7-8139-ab9085aa3dbc</t>
+          <t>a3a07b5f-0b97-4eb0-978d-bd17f7220cd1</t>
         </is>
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/6c47d268-6f67-49b7-8139-ab9085aa3dbc</t>
+          <t>https://www.speedtest.net/result/c/a3a07b5f-0b97-4eb0-978d-bd17f7220cd1</t>
         </is>
       </c>
       <c r="AJ42" t="b">
@@ -6701,65 +6685,65 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:13Z</t>
+          <t>2024-09-15T08:23:22Z</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>191.203</v>
+        <v>339.481</v>
       </c>
       <c r="D43" t="n">
-        <v>124.836</v>
+        <v>243.314</v>
       </c>
       <c r="E43" t="n">
-        <v>34.752</v>
+        <v>46.772</v>
       </c>
       <c r="F43" t="n">
-        <v>296.737</v>
+        <v>585.068</v>
       </c>
       <c r="G43" t="n">
-        <v>1283552</v>
+        <v>1385552</v>
       </c>
       <c r="H43" t="n">
-        <v>1883667</v>
+        <v>2978989</v>
       </c>
       <c r="I43" t="n">
-        <v>12513</v>
+        <v>15015</v>
       </c>
       <c r="J43" t="n">
-        <v>281.699</v>
+        <v>389.213</v>
       </c>
       <c r="K43" t="n">
-        <v>36.05</v>
+        <v>38.593</v>
       </c>
       <c r="L43" t="n">
-        <v>2293.803</v>
+        <v>2391.897</v>
       </c>
       <c r="M43" t="n">
-        <v>67.20999999999999</v>
+        <v>81.184</v>
       </c>
       <c r="N43" t="n">
-        <v>523808</v>
+        <v>759056</v>
       </c>
       <c r="O43" t="n">
-        <v>731936</v>
+        <v>1418304</v>
       </c>
       <c r="P43" t="n">
-        <v>10782</v>
+        <v>15002</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.702</v>
+        <v>309.261</v>
       </c>
       <c r="R43" t="n">
-        <v>40.809</v>
+        <v>33.175</v>
       </c>
       <c r="S43" t="n">
-        <v>1150.747</v>
+        <v>3029.254</v>
       </c>
       <c r="T43" t="n">
-        <v>62.481</v>
+        <v>67.399</v>
       </c>
       <c r="U43" t="n">
-        <v>13.43283582089552</v>
+        <v>14.76510067114094</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -6817,12 +6801,12 @@
       </c>
       <c r="AH43" t="inlineStr">
         <is>
-          <t>71dae43c-2d0c-4d05-aa3c-7a262800f2ac</t>
+          <t>0ced6012-f63b-4183-86c6-a47737606944</t>
         </is>
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/71dae43c-2d0c-4d05-aa3c-7a262800f2ac</t>
+          <t>https://www.speedtest.net/result/c/0ced6012-f63b-4183-86c6-a47737606944</t>
         </is>
       </c>
       <c r="AJ43" t="b">
@@ -6838,70 +6822,72 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>sta44</t>
+          <t>sta43</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:20Z</t>
+          <t>2024-09-15T08:23:19Z</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>180.783</v>
+        <v>8.096</v>
       </c>
       <c r="D44" t="n">
-        <v>106.76</v>
+        <v>39.285</v>
       </c>
       <c r="E44" t="n">
-        <v>30.852</v>
+        <v>30.428</v>
       </c>
       <c r="F44" t="n">
-        <v>274.336</v>
+        <v>44.483</v>
       </c>
       <c r="G44" t="n">
-        <v>1184520</v>
+        <v>1032840</v>
       </c>
       <c r="H44" t="n">
-        <v>2092469</v>
+        <v>1845818</v>
       </c>
       <c r="I44" t="n">
-        <v>15008</v>
+        <v>15006</v>
       </c>
       <c r="J44" t="n">
-        <v>298.106</v>
+        <v>762.748</v>
       </c>
       <c r="K44" t="n">
-        <v>29.732</v>
+        <v>25</v>
       </c>
       <c r="L44" t="n">
-        <v>1379.522</v>
+        <v>2541.245</v>
       </c>
       <c r="M44" t="n">
-        <v>74.33499999999999</v>
+        <v>88.502</v>
       </c>
       <c r="N44" t="n">
-        <v>762232</v>
+        <v>862040</v>
       </c>
       <c r="O44" t="n">
-        <v>1339984</v>
+        <v>1461024</v>
       </c>
       <c r="P44" t="n">
-        <v>15004</v>
+        <v>14922</v>
       </c>
       <c r="Q44" t="n">
-        <v>166.474</v>
+        <v>220.095</v>
       </c>
       <c r="R44" t="n">
-        <v>23.595</v>
+        <v>24.746</v>
       </c>
       <c r="S44" t="n">
-        <v>1072.363</v>
+        <v>1112.663</v>
       </c>
       <c r="T44" t="n">
-        <v>55.787</v>
-      </c>
-      <c r="U44" t="n">
-        <v>12.24489795918367</v>
+        <v>66.04600000000001</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -6910,17 +6896,17 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>192.168.1.169</t>
+          <t>192.168.1.120</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>sta44-wlan0</t>
+          <t>sta43-wlan0</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>02:00:00:00:2B:00</t>
+          <t>02:00:00:00:2A:00</t>
         </is>
       </c>
       <c r="Z44" t="b">
@@ -6932,11 +6918,11 @@
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>36813</v>
+        <v>33207</v>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>speedtest2.solo.citra.net.id</t>
+          <t>speedtest.gsmnet.id</t>
         </is>
       </c>
       <c r="AD44" t="n">
@@ -6944,7 +6930,7 @@
       </c>
       <c r="AE44" t="inlineStr">
         <is>
-          <t>CitraNet</t>
+          <t>Lintas Data Prima</t>
         </is>
       </c>
       <c r="AF44" t="inlineStr">
@@ -6959,12 +6945,12 @@
       </c>
       <c r="AH44" t="inlineStr">
         <is>
-          <t>7c9a2899-17b1-4042-8d54-f563a62f95ed</t>
+          <t>5b5f2c54-2f63-43b9-837d-f660fa2dc024</t>
         </is>
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/7c9a2899-17b1-4042-8d54-f563a62f95ed</t>
+          <t>https://www.speedtest.net/result/c/5b5f2c54-2f63-43b9-837d-f660fa2dc024</t>
         </is>
       </c>
       <c r="AJ44" t="b">
@@ -6980,70 +6966,70 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>sta45</t>
+          <t>sta44</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:26Z</t>
+          <t>2024-09-15T08:23:26Z</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>264.772</v>
+        <v>807.038</v>
       </c>
       <c r="D45" t="n">
-        <v>127.403</v>
+        <v>286.857</v>
       </c>
       <c r="E45" t="n">
-        <v>27.659</v>
+        <v>62.976</v>
       </c>
       <c r="F45" t="n">
-        <v>528.782</v>
+        <v>1660.278</v>
       </c>
       <c r="G45" t="n">
-        <v>2389528</v>
+        <v>945552</v>
       </c>
       <c r="H45" t="n">
-        <v>3704000</v>
+        <v>1574180</v>
       </c>
       <c r="I45" t="n">
-        <v>15003</v>
+        <v>15009</v>
       </c>
       <c r="J45" t="n">
-        <v>118.778</v>
+        <v>357.102</v>
       </c>
       <c r="K45" t="n">
-        <v>22.282</v>
+        <v>28.133</v>
       </c>
       <c r="L45" t="n">
-        <v>690.452</v>
+        <v>1425.463</v>
       </c>
       <c r="M45" t="n">
-        <v>46.327</v>
+        <v>75.152</v>
       </c>
       <c r="N45" t="n">
-        <v>18999656</v>
+        <v>4505000</v>
       </c>
       <c r="O45" t="n">
-        <v>31473248</v>
+        <v>7481696</v>
       </c>
       <c r="P45" t="n">
-        <v>14985</v>
+        <v>14989</v>
       </c>
       <c r="Q45" t="n">
-        <v>41.204</v>
+        <v>90</v>
       </c>
       <c r="R45" t="n">
-        <v>17.693</v>
+        <v>19.563</v>
       </c>
       <c r="S45" t="n">
-        <v>1217.381</v>
+        <v>505.381</v>
       </c>
       <c r="T45" t="n">
-        <v>28.873</v>
+        <v>47.022</v>
       </c>
       <c r="U45" t="n">
-        <v>1.677852348993289</v>
+        <v>10.73825503355705</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -7052,17 +7038,17 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>192.168.1.218</t>
+          <t>192.168.1.169</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>sta45-wlan0</t>
+          <t>sta44-wlan0</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>02:00:00:00:2C:00</t>
+          <t>02:00:00:00:2B:00</t>
         </is>
       </c>
       <c r="Z45" t="b">
@@ -7074,11 +7060,11 @@
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>41848</v>
+        <v>36813</v>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>sukoharjo-ookla.gmdp.net.id</t>
+          <t>speedtest2.solo.citra.net.id</t>
         </is>
       </c>
       <c r="AD45" t="n">
@@ -7086,12 +7072,12 @@
       </c>
       <c r="AE45" t="inlineStr">
         <is>
-          <t>Global Media Data Prima</t>
+          <t>CitraNet</t>
         </is>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>Sukoharjo</t>
+          <t>Surakarta</t>
         </is>
       </c>
       <c r="AG45" t="inlineStr">
@@ -7101,12 +7087,12 @@
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t>2dcd6b7d-6726-47bb-af51-cb475b0fcb30</t>
+          <t>fe639eff-e86d-4b9e-846a-2b4cfd073df1</t>
         </is>
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/2dcd6b7d-6726-47bb-af51-cb475b0fcb30</t>
+          <t>https://www.speedtest.net/result/c/fe639eff-e86d-4b9e-846a-2b4cfd073df1</t>
         </is>
       </c>
       <c r="AJ45" t="b">
@@ -7122,141 +7108,187 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>sta46</t>
+          <t>sta45</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:18Z</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>183.736</v>
-      </c>
-      <c r="D46" t="n">
-        <v>122.093</v>
-      </c>
-      <c r="E46" t="n">
-        <v>43.825</v>
-      </c>
-      <c r="F46" t="n">
-        <v>296.722</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1098168</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2430644</v>
-      </c>
-      <c r="I46" t="n">
-        <v>15004</v>
-      </c>
-      <c r="J46" t="n">
-        <v>368.176</v>
-      </c>
-      <c r="K46" t="n">
-        <v>37.474</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1299.38</v>
-      </c>
-      <c r="M46" t="n">
-        <v>75.74299999999999</v>
-      </c>
-      <c r="N46" t="n">
-        <v>949184</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1690288</v>
-      </c>
-      <c r="P46" t="n">
-        <v>14994</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>226.76</v>
-      </c>
-      <c r="R46" t="n">
-        <v>34.765</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1860.758</v>
-      </c>
-      <c r="T46" t="n">
-        <v>57.61</v>
-      </c>
-      <c r="U46" t="n">
-        <v>8.724832214765101</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Universitas Sebelas Maret</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>192.168.1.119</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>sta46-wlan0</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>02:00:00:00:2D:00</t>
-        </is>
-      </c>
-      <c r="Z46" t="b">
-        <v>0</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>203.6.148.253</t>
-        </is>
-      </c>
-      <c r="AB46" t="n">
-        <v>13825</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>speedtestsrk1.gmedia.net.id</t>
-        </is>
-      </c>
-      <c r="AD46" t="n">
-        <v>8080</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AE46" t="inlineStr">
         <is>
-          <t>GMEDIA</t>
+          <t>Global Media Data Prima</t>
         </is>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>Surakarta</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH46" t="inlineStr">
         <is>
-          <t>710a129c-03c1-4684-90cc-e3889f75139b</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/710a129c-03c1-4684-90cc-e3889f75139b</t>
-        </is>
-      </c>
-      <c r="AJ46" t="b">
-        <v>1</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AK46" t="inlineStr">
         <is>
-          <t>No error</t>
+          <t>SPEEDTEST ERROR</t>
         </is>
       </c>
       <c r="AL46" t="inlineStr"/>
@@ -7264,70 +7296,70 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>sta47</t>
+          <t>sta46</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:18Z</t>
+          <t>2024-09-15T08:23:20Z</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>124.292</v>
+        <v>1230.257</v>
       </c>
       <c r="D47" t="n">
-        <v>38.559</v>
+        <v>199.139</v>
       </c>
       <c r="E47" t="n">
-        <v>34.002</v>
+        <v>41.742</v>
       </c>
       <c r="F47" t="n">
-        <v>282.155</v>
+        <v>2507.827</v>
       </c>
       <c r="G47" t="n">
-        <v>1230544</v>
+        <v>870832</v>
       </c>
       <c r="H47" t="n">
-        <v>2170352</v>
+        <v>1833907</v>
       </c>
       <c r="I47" t="n">
-        <v>14109</v>
+        <v>15002</v>
       </c>
       <c r="J47" t="n">
-        <v>329.118</v>
+        <v>456.61</v>
       </c>
       <c r="K47" t="n">
-        <v>22.57</v>
+        <v>42.75</v>
       </c>
       <c r="L47" t="n">
-        <v>2507.293</v>
+        <v>1493.823</v>
       </c>
       <c r="M47" t="n">
-        <v>72.42100000000001</v>
+        <v>78.13800000000001</v>
       </c>
       <c r="N47" t="n">
-        <v>822488</v>
+        <v>1087184</v>
       </c>
       <c r="O47" t="n">
-        <v>1549312</v>
+        <v>2016384</v>
       </c>
       <c r="P47" t="n">
-        <v>14913</v>
+        <v>14960</v>
       </c>
       <c r="Q47" t="n">
-        <v>158.761</v>
+        <v>174.031</v>
       </c>
       <c r="R47" t="n">
-        <v>20.628</v>
+        <v>37.618</v>
       </c>
       <c r="S47" t="n">
-        <v>1484.658</v>
+        <v>787.755</v>
       </c>
       <c r="T47" t="n">
-        <v>55.695</v>
+        <v>52.685</v>
       </c>
       <c r="U47" t="n">
-        <v>6.428571428571429</v>
+        <v>13.42281879194631</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -7336,17 +7368,17 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>192.168.1.166</t>
+          <t>192.168.1.119</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>sta47-wlan0</t>
+          <t>sta46-wlan0</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>02:00:00:00:2E:00</t>
+          <t>02:00:00:00:2D:00</t>
         </is>
       </c>
       <c r="Z47" t="b">
@@ -7358,11 +7390,11 @@
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>33207</v>
+        <v>13825</v>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>speedtest.gsmnet.id</t>
+          <t>speedtestsrk1.gmedia.net.id</t>
         </is>
       </c>
       <c r="AD47" t="n">
@@ -7370,7 +7402,7 @@
       </c>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>Lintas Data Prima</t>
+          <t>GMEDIA</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
@@ -7385,12 +7417,12 @@
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>d2fe3839-4d0e-4c4f-b946-97895ac9a006</t>
+          <t>b5233334-67ca-4cd4-b57a-9d43bae925fe</t>
         </is>
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/d2fe3839-4d0e-4c4f-b946-97895ac9a006</t>
+          <t>https://www.speedtest.net/result/c/b5233334-67ca-4cd4-b57a-9d43bae925fe</t>
         </is>
       </c>
       <c r="AJ47" t="b">
@@ -7406,141 +7438,187 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>sta48</t>
+          <t>sta47</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:19Z</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>122.703</v>
-      </c>
-      <c r="D48" t="n">
-        <v>31.917</v>
-      </c>
-      <c r="E48" t="n">
-        <v>24.782</v>
-      </c>
-      <c r="F48" t="n">
-        <v>270.841</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1045608</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1848929</v>
-      </c>
-      <c r="I48" t="n">
-        <v>15001</v>
-      </c>
-      <c r="J48" t="n">
-        <v>375.563</v>
-      </c>
-      <c r="K48" t="n">
-        <v>28.216</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1165.445</v>
-      </c>
-      <c r="M48" t="n">
-        <v>76.62</v>
-      </c>
-      <c r="N48" t="n">
-        <v>1046480</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1949456</v>
-      </c>
-      <c r="P48" t="n">
-        <v>15007</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>176.113</v>
-      </c>
-      <c r="R48" t="n">
-        <v>16.781</v>
-      </c>
-      <c r="S48" t="n">
-        <v>1817.958</v>
-      </c>
-      <c r="T48" t="n">
-        <v>55.092</v>
-      </c>
-      <c r="U48" t="n">
-        <v>13.86138613861386</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Universitas Sebelas Maret</t>
+          <t>error</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>192.168.1.215</t>
+          <t>error</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>sta48-wlan0</t>
+          <t>error</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>02:00:00:00:2F:00</t>
-        </is>
-      </c>
-      <c r="Z48" t="b">
-        <v>0</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>203.6.148.253</t>
-        </is>
-      </c>
-      <c r="AB48" t="n">
-        <v>36813</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>speedtest2.solo.citra.net.id</t>
-        </is>
-      </c>
-      <c r="AD48" t="n">
-        <v>8080</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AE48" t="inlineStr">
         <is>
-          <t>CitraNet</t>
+          <t>Lintas Data Prima</t>
         </is>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>Surakarta</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AH48" t="inlineStr">
         <is>
-          <t>3c9bdae2-2b33-4cdd-b413-65b2587061a1</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/3c9bdae2-2b33-4cdd-b413-65b2587061a1</t>
-        </is>
-      </c>
-      <c r="AJ48" t="b">
-        <v>1</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="AJ48" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
       </c>
       <c r="AK48" t="inlineStr">
         <is>
-          <t>No error</t>
+          <t>Latency test failed</t>
         </is>
       </c>
       <c r="AL48" t="inlineStr"/>
@@ -7548,70 +7626,70 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>sta49</t>
+          <t>sta48</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:20Z</t>
+          <t>2024-09-15T08:23:26Z</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>120.157</v>
+        <v>11.412</v>
       </c>
       <c r="D49" t="n">
-        <v>31.691</v>
+        <v>38.034</v>
       </c>
       <c r="E49" t="n">
-        <v>24.378</v>
+        <v>27.535</v>
       </c>
       <c r="F49" t="n">
-        <v>265.726</v>
+        <v>51.022</v>
       </c>
       <c r="G49" t="n">
-        <v>1271696</v>
+        <v>1114632</v>
       </c>
       <c r="H49" t="n">
-        <v>2540331</v>
+        <v>1666981</v>
       </c>
       <c r="I49" t="n">
-        <v>15002</v>
+        <v>15006</v>
       </c>
       <c r="J49" t="n">
-        <v>354.184</v>
+        <v>385.272</v>
       </c>
       <c r="K49" t="n">
-        <v>25.062</v>
+        <v>24.855</v>
       </c>
       <c r="L49" t="n">
-        <v>1396.532</v>
+        <v>1826.112</v>
       </c>
       <c r="M49" t="n">
-        <v>74.238</v>
+        <v>74.76300000000001</v>
       </c>
       <c r="N49" t="n">
-        <v>899088</v>
+        <v>3856536</v>
       </c>
       <c r="O49" t="n">
-        <v>1697408</v>
+        <v>6479200</v>
       </c>
       <c r="P49" t="n">
-        <v>14989</v>
+        <v>14986</v>
       </c>
       <c r="Q49" t="n">
-        <v>107.807</v>
+        <v>105.434</v>
       </c>
       <c r="R49" t="n">
-        <v>21.778</v>
+        <v>17.67</v>
       </c>
       <c r="S49" t="n">
-        <v>627.614</v>
+        <v>1162.517</v>
       </c>
       <c r="T49" t="n">
-        <v>47.374</v>
+        <v>45.702</v>
       </c>
       <c r="U49" t="n">
-        <v>12.08053691275168</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -7620,17 +7698,17 @@
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>192.168.1.114</t>
+          <t>192.168.1.215</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>sta49-wlan0</t>
+          <t>sta48-wlan0</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>02:00:00:00:30:00</t>
+          <t>02:00:00:00:2F:00</t>
         </is>
       </c>
       <c r="Z49" t="b">
@@ -7642,11 +7720,11 @@
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>41848</v>
+        <v>36813</v>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>sukoharjo-ookla.gmdp.net.id</t>
+          <t>speedtest2.solo.citra.net.id</t>
         </is>
       </c>
       <c r="AD49" t="n">
@@ -7654,12 +7732,12 @@
       </c>
       <c r="AE49" t="inlineStr">
         <is>
-          <t>Global Media Data Prima</t>
+          <t>CitraNet</t>
         </is>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>Sukoharjo</t>
+          <t>Surakarta</t>
         </is>
       </c>
       <c r="AG49" t="inlineStr">
@@ -7669,12 +7747,12 @@
       </c>
       <c r="AH49" t="inlineStr">
         <is>
-          <t>202e47e9-8880-4fb1-b628-08a27a0282c5</t>
+          <t>a1e70f3c-c5e8-4b99-b3fe-0a11f0289cd1</t>
         </is>
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/202e47e9-8880-4fb1-b628-08a27a0282c5</t>
+          <t>https://www.speedtest.net/result/c/a1e70f3c-c5e8-4b99-b3fe-0a11f0289cd1</t>
         </is>
       </c>
       <c r="AJ49" t="b">
@@ -7690,70 +7768,70 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>sta50</t>
+          <t>sta49</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024-09-15T08:00:17Z</t>
+          <t>2024-09-15T08:23:26Z</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>188.153</v>
+        <v>464.949</v>
       </c>
       <c r="D50" t="n">
-        <v>116.131</v>
+        <v>185.696</v>
       </c>
       <c r="E50" t="n">
-        <v>32.604</v>
+        <v>31.814</v>
       </c>
       <c r="F50" t="n">
-        <v>288.508</v>
+        <v>1882.663</v>
       </c>
       <c r="G50" t="n">
-        <v>1315000</v>
+        <v>1066496</v>
       </c>
       <c r="H50" t="n">
-        <v>2197080</v>
+        <v>1967423</v>
       </c>
       <c r="I50" t="n">
-        <v>12015</v>
+        <v>15006</v>
       </c>
       <c r="J50" t="n">
-        <v>358.715</v>
+        <v>382.199</v>
       </c>
       <c r="K50" t="n">
-        <v>40.783</v>
+        <v>25.872</v>
       </c>
       <c r="L50" t="n">
-        <v>1923.267</v>
+        <v>2206.309</v>
       </c>
       <c r="M50" t="n">
-        <v>72.733</v>
+        <v>74.56</v>
       </c>
       <c r="N50" t="n">
-        <v>712880</v>
+        <v>2506736</v>
       </c>
       <c r="O50" t="n">
-        <v>1335712</v>
+        <v>4301904</v>
       </c>
       <c r="P50" t="n">
-        <v>14980</v>
+        <v>14993</v>
       </c>
       <c r="Q50" t="n">
-        <v>178.351</v>
+        <v>109.423</v>
       </c>
       <c r="R50" t="n">
-        <v>32.785</v>
+        <v>18.823</v>
       </c>
       <c r="S50" t="n">
-        <v>1373.767</v>
+        <v>735.02</v>
       </c>
       <c r="T50" t="n">
-        <v>51.954</v>
+        <v>46.829</v>
       </c>
       <c r="U50" t="n">
-        <v>5.439330543933054</v>
+        <v>10.61643835616438</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -7762,17 +7840,17 @@
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>192.168.1.165</t>
+          <t>192.168.1.114</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>sta50-wlan0</t>
+          <t>sta49-wlan0</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>02:00:00:00:31:00</t>
+          <t>02:00:00:00:30:00</t>
         </is>
       </c>
       <c r="Z50" t="b">
@@ -7784,11 +7862,11 @@
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>13825</v>
+        <v>41848</v>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>speedtestsrk1.gmedia.net.id</t>
+          <t>sukoharjo-ookla.gmdp.net.id</t>
         </is>
       </c>
       <c r="AD50" t="n">
@@ -7796,12 +7874,12 @@
       </c>
       <c r="AE50" t="inlineStr">
         <is>
-          <t>GMEDIA</t>
+          <t>Global Media Data Prima</t>
         </is>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>Surakarta</t>
+          <t>Sukoharjo</t>
         </is>
       </c>
       <c r="AG50" t="inlineStr">
@@ -7811,12 +7889,12 @@
       </c>
       <c r="AH50" t="inlineStr">
         <is>
-          <t>59460333-ee91-4707-b781-3b37dffd57f0</t>
+          <t>85711853-cd71-4279-8bce-7aa074140e69</t>
         </is>
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>https://www.speedtest.net/result/c/59460333-ee91-4707-b781-3b37dffd57f0</t>
+          <t>https://www.speedtest.net/result/c/85711853-cd71-4279-8bce-7aa074140e69</t>
         </is>
       </c>
       <c r="AJ50" t="b">
@@ -7827,8 +7905,158 @@
           <t>No error</t>
         </is>
       </c>
-      <c r="AL50" t="n">
-        <v>5</v>
+      <c r="AL50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>sta50</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2024-09-15T08:23:17Z</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>223.756</v>
+      </c>
+      <c r="D51" t="n">
+        <v>130.707</v>
+      </c>
+      <c r="E51" t="n">
+        <v>47.092</v>
+      </c>
+      <c r="F51" t="n">
+        <v>424.734</v>
+      </c>
+      <c r="G51" t="n">
+        <v>997392</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1199228</v>
+      </c>
+      <c r="I51" t="n">
+        <v>11616</v>
+      </c>
+      <c r="J51" t="n">
+        <v>534.503</v>
+      </c>
+      <c r="K51" t="n">
+        <v>39.355</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1921.226</v>
+      </c>
+      <c r="M51" t="n">
+        <v>80.98699999999999</v>
+      </c>
+      <c r="N51" t="n">
+        <v>579888</v>
+      </c>
+      <c r="O51" t="n">
+        <v>861089</v>
+      </c>
+      <c r="P51" t="n">
+        <v>14104</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>14.6551724137931</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Universitas Sebelas Maret</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>192.168.1.165</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>sta50-wlan0</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>02:00:00:00:31:00</t>
+        </is>
+      </c>
+      <c r="Z51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>203.6.148.253</t>
+        </is>
+      </c>
+      <c r="AB51" t="n">
+        <v>13825</v>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>speedtestsrk1.gmedia.net.id</t>
+        </is>
+      </c>
+      <c r="AD51" t="n">
+        <v>8080</v>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>GMEDIA</t>
+        </is>
+      </c>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>Surakarta</t>
+        </is>
+      </c>
+      <c r="AG51" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="AH51" t="inlineStr">
+        <is>
+          <t>3983420a-ce79-40bf-ba27-b54d5d1e43b1</t>
+        </is>
+      </c>
+      <c r="AI51" t="inlineStr">
+        <is>
+          <t>https://www.speedtest.net/result/c/3983420a-ce79-40bf-ba27-b54d5d1e43b1</t>
+        </is>
+      </c>
+      <c r="AJ51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK51" t="inlineStr">
+        <is>
+          <t>No error</t>
+        </is>
+      </c>
+      <c r="AL51" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
